--- a/src/main/resources/xlsx/result.xlsx
+++ b/src/main/resources/xlsx/result.xlsx
@@ -6,525 +6,535 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="RESULT" r:id="rId3" sheetId="1"/>
+    <sheet name="Классы" r:id="rId3" sheetId="1"/>
+    <sheet name="Учителя" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="174">
   <si>
     <t>Monday</t>
   </si>
   <si>
+    <t>5а</t>
+  </si>
+  <si>
+    <t>Волкова-1</t>
+  </si>
+  <si>
+    <t>Загребельная-2</t>
+  </si>
+  <si>
+    <t>Платунова-3</t>
+  </si>
+  <si>
+    <t>Грищенко-4</t>
+  </si>
+  <si>
+    <t>Куликова-5</t>
+  </si>
+  <si>
+    <t>Михайлова-1</t>
+  </si>
+  <si>
+    <t>Полозова-2</t>
+  </si>
+  <si>
+    <t>Грищенко-3</t>
+  </si>
+  <si>
+    <t>Калинина-4</t>
+  </si>
+  <si>
+    <t>Григорьева-5</t>
+  </si>
+  <si>
     <t>5в</t>
   </si>
   <si>
+    <t>Григорьева-1</t>
+  </si>
+  <si>
+    <t>Кузикова-2</t>
+  </si>
+  <si>
+    <t>Реппо-3</t>
+  </si>
+  <si>
+    <t>Полозова-4</t>
+  </si>
+  <si>
+    <t>Грищенко-5</t>
+  </si>
+  <si>
+    <t>6в</t>
+  </si>
+  <si>
+    <t>Реппо-1</t>
+  </si>
+  <si>
+    <t>Михайлова-2</t>
+  </si>
+  <si>
+    <t>Кузикова-3</t>
+  </si>
+  <si>
+    <t>Реппо-4</t>
+  </si>
+  <si>
+    <t>Кузьмина-5</t>
+  </si>
+  <si>
+    <t>6а</t>
+  </si>
+  <si>
+    <t>Автономова-1</t>
+  </si>
+  <si>
+    <t>Автономова-2</t>
+  </si>
+  <si>
+    <t>Дубова-3</t>
+  </si>
+  <si>
+    <t>Орлова-4</t>
+  </si>
+  <si>
+    <t>Волкова-5</t>
+  </si>
+  <si>
+    <t>6б</t>
+  </si>
+  <si>
+    <t>Флоринская-1</t>
+  </si>
+  <si>
+    <t>Орлова-2</t>
+  </si>
+  <si>
+    <t>Васильева-3</t>
+  </si>
+  <si>
+    <t>Селькин-4</t>
+  </si>
+  <si>
+    <t>Михайлова-5</t>
+  </si>
+  <si>
+    <t>7б</t>
+  </si>
+  <si>
+    <t>Яковлева-1</t>
+  </si>
+  <si>
+    <t>Платунова-2</t>
+  </si>
+  <si>
+    <t>Спиридович-3</t>
+  </si>
+  <si>
+    <t>Дубова-4</t>
+  </si>
+  <si>
+    <t>Степанян-5</t>
+  </si>
+  <si>
+    <t>Спиридович-6</t>
+  </si>
+  <si>
+    <t>7в</t>
+  </si>
+  <si>
     <t>Чулкова-1</t>
   </si>
   <si>
+    <t>Кузнецова-2</t>
+  </si>
+  <si>
+    <t>Михайлова-3</t>
+  </si>
+  <si>
+    <t>Кушнаренко-4</t>
+  </si>
+  <si>
+    <t>Кушнаренко-5</t>
+  </si>
+  <si>
+    <t>Полозова-6</t>
+  </si>
+  <si>
+    <t>7а</t>
+  </si>
+  <si>
+    <t>Кузьмина-1</t>
+  </si>
+  <si>
+    <t>Кушнаренко-2</t>
+  </si>
+  <si>
+    <t>Полозова-3</t>
+  </si>
+  <si>
+    <t>Платунова-4</t>
+  </si>
+  <si>
+    <t>Яковлева-5</t>
+  </si>
+  <si>
+    <t>Грищенко-6</t>
+  </si>
+  <si>
+    <t>8в</t>
+  </si>
+  <si>
+    <t>Загребельная-1</t>
+  </si>
+  <si>
     <t>Григорьева-2</t>
   </si>
   <si>
+    <t>Орлова-3</t>
+  </si>
+  <si>
+    <t>Загребельная-4</t>
+  </si>
+  <si>
+    <t>Кузнецова-5</t>
+  </si>
+  <si>
+    <t>Кузнецова-6</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>Васильева-1</t>
+  </si>
+  <si>
+    <t>Флоринская-2</t>
+  </si>
+  <si>
+    <t>Волкова-3</t>
+  </si>
+  <si>
+    <t>Михайлова-4</t>
+  </si>
+  <si>
+    <t>Орлова-5</t>
+  </si>
+  <si>
+    <t>Волкова-6</t>
+  </si>
+  <si>
+    <t>Синицкая-1</t>
+  </si>
+  <si>
+    <t>Чулкова-2</t>
+  </si>
+  <si>
+    <t>Григорьева-3</t>
+  </si>
+  <si>
+    <t>Синицкая-4</t>
+  </si>
+  <si>
+    <t>Дубова-5</t>
+  </si>
+  <si>
+    <t>Степанян-6</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>Георгиева-1</t>
+  </si>
+  <si>
+    <t>Калинина-2</t>
+  </si>
+  <si>
+    <t>Калинина-3</t>
+  </si>
+  <si>
+    <t>Васильева-4</t>
+  </si>
+  <si>
+    <t>Калинина-5</t>
+  </si>
+  <si>
+    <t>Кушнаренко-6</t>
+  </si>
+  <si>
+    <t>Орлова-7</t>
+  </si>
+  <si>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>Селькин-1</t>
+  </si>
+  <si>
+    <t>Кузьмина-2</t>
+  </si>
+  <si>
+    <t>Синицкая-3</t>
+  </si>
+  <si>
+    <t>Куликова-4</t>
+  </si>
+  <si>
+    <t>Васильева-5</t>
+  </si>
+  <si>
+    <t>Дубова-6</t>
+  </si>
+  <si>
+    <t>Георгиева-7</t>
+  </si>
+  <si>
+    <t>9в</t>
+  </si>
+  <si>
+    <t>Кузнецова-1</t>
+  </si>
+  <si>
+    <t>Синицкая-2</t>
+  </si>
+  <si>
+    <t>Кузьмина-3</t>
+  </si>
+  <si>
+    <t>Кузьмина-4</t>
+  </si>
+  <si>
+    <t>Флоринская-5</t>
+  </si>
+  <si>
+    <t>Орлова-6</t>
+  </si>
+  <si>
+    <t>Бирюкова-7</t>
+  </si>
+  <si>
+    <t>10б</t>
+  </si>
+  <si>
+    <t>Платунова-1</t>
+  </si>
+  <si>
+    <t>Волкова-2</t>
+  </si>
+  <si>
+    <t>Селькин-3</t>
+  </si>
+  <si>
+    <t>Волкова-4</t>
+  </si>
+  <si>
+    <t>Платунова-5</t>
+  </si>
+  <si>
+    <t>Калинина-6</t>
+  </si>
+  <si>
+    <t>Степанян-7</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
+    <t>Кузикова-1</t>
+  </si>
+  <si>
+    <t>Яковлева-2</t>
+  </si>
+  <si>
+    <t>Бирюкова-3</t>
+  </si>
+  <si>
+    <t>Флоринская-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-5</t>
+  </si>
+  <si>
+    <t>Бирюкова-6</t>
+  </si>
+  <si>
+    <t>Михайлова-7</t>
+  </si>
+  <si>
+    <t>11б</t>
+  </si>
+  <si>
+    <t>Калинина-1</t>
+  </si>
+  <si>
+    <t>Степанян-2</t>
+  </si>
+  <si>
+    <t>Чижкина-3</t>
+  </si>
+  <si>
+    <t>Автономова-4</t>
+  </si>
+  <si>
+    <t>Чижкина-5</t>
+  </si>
+  <si>
+    <t>Васильева-6</t>
+  </si>
+  <si>
+    <t>Грищенко-7</t>
+  </si>
+  <si>
+    <t>Грищенко-1</t>
+  </si>
+  <si>
+    <t>Бирюкова-2</t>
+  </si>
+  <si>
+    <t>Степанян-3</t>
+  </si>
+  <si>
+    <t>Бирюкова-4</t>
+  </si>
+  <si>
+    <t>Спиридович-5</t>
+  </si>
+  <si>
+    <t>Синицкая-6</t>
+  </si>
+  <si>
+    <t>Дубова-7</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>5б</t>
+  </si>
+  <si>
+    <t>Чижкина-4</t>
+  </si>
+  <si>
+    <t>Спиридович-2</t>
+  </si>
+  <si>
+    <t>Загребельная-5</t>
+  </si>
+  <si>
+    <t>Григорьева-4</t>
+  </si>
+  <si>
+    <t>Дубова-2</t>
+  </si>
+  <si>
+    <t>Чулкова-3</t>
+  </si>
+  <si>
+    <t>Яковлева-6</t>
+  </si>
+  <si>
+    <t>Кушнаренко-1</t>
+  </si>
+  <si>
+    <t>Реппо-5</t>
+  </si>
+  <si>
+    <t>Орлова-1</t>
+  </si>
+  <si>
+    <t>Полозова-5</t>
+  </si>
+  <si>
+    <t>Загребельная-6</t>
+  </si>
+  <si>
+    <t>Васильева-2</t>
+  </si>
+  <si>
+    <t>Куликова-6</t>
+  </si>
+  <si>
+    <t>Степанян-4</t>
+  </si>
+  <si>
+    <t>Куликова-7</t>
+  </si>
+  <si>
+    <t>Кузьмина-6</t>
+  </si>
+  <si>
     <t>Кузнецова-3</t>
   </si>
   <si>
-    <t>Флоринская-4</t>
-  </si>
-  <si>
-    <t>Платунова-5</t>
-  </si>
-  <si>
-    <t>Загребельная-1</t>
-  </si>
-  <si>
-    <t>Кузикова-2</t>
-  </si>
-  <si>
-    <t>Селькин-3</t>
-  </si>
-  <si>
-    <t>Григорьева-4</t>
-  </si>
-  <si>
-    <t>Бирюкова-5</t>
-  </si>
-  <si>
-    <t>Кушнаренко-1</t>
-  </si>
-  <si>
-    <t>Яковлева-2</t>
-  </si>
-  <si>
-    <t>Реппо-3</t>
-  </si>
-  <si>
-    <t>Куликова-4</t>
-  </si>
-  <si>
-    <t>Загребельная-5</t>
-  </si>
-  <si>
-    <t>6в</t>
-  </si>
-  <si>
-    <t>Орлова-1</t>
-  </si>
-  <si>
-    <t>Дубова-2</t>
-  </si>
-  <si>
-    <t>Бирюкова-3</t>
-  </si>
-  <si>
-    <t>Загребельная-4</t>
-  </si>
-  <si>
-    <t>Грищенко-5</t>
-  </si>
-  <si>
-    <t>6б</t>
+    <t>Автономова-3</t>
+  </si>
+  <si>
+    <t>Селькин-2</t>
+  </si>
+  <si>
+    <t>Яковлева-4</t>
+  </si>
+  <si>
+    <t>Михайлова-6</t>
   </si>
   <si>
     <t>Степанян-1</t>
   </si>
   <si>
-    <t>Калинина-2</t>
-  </si>
-  <si>
-    <t>Григорьева-3</t>
-  </si>
-  <si>
-    <t>Селькин-4</t>
-  </si>
-  <si>
-    <t>Полозова-5</t>
-  </si>
-  <si>
-    <t>6а</t>
-  </si>
-  <si>
-    <t>Васильева-1</t>
-  </si>
-  <si>
-    <t>Волкова-2</t>
-  </si>
-  <si>
-    <t>Автономова-3</t>
-  </si>
-  <si>
-    <t>Степанян-4</t>
-  </si>
-  <si>
-    <t>Яковлева-5</t>
-  </si>
-  <si>
-    <t>7в</t>
-  </si>
-  <si>
-    <t>Кузнецова-1</t>
-  </si>
-  <si>
-    <t>Флоринская-2</t>
-  </si>
-  <si>
-    <t>Спиридович-3</t>
-  </si>
-  <si>
-    <t>Дубова-4</t>
-  </si>
-  <si>
-    <t>Волкова-5</t>
+    <t>Спиридович-4</t>
+  </si>
+  <si>
+    <t>Волкова-7</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Реппо-2</t>
+  </si>
+  <si>
+    <t>Куликова-3</t>
+  </si>
+  <si>
+    <t>Грищенко-2</t>
+  </si>
+  <si>
+    <t>Кузнецова-4</t>
+  </si>
+  <si>
+    <t>8б</t>
   </si>
   <si>
     <t>Чижкина-6</t>
   </si>
   <si>
-    <t>7б</t>
-  </si>
-  <si>
-    <t>Грищенко-1</t>
-  </si>
-  <si>
-    <t>Спиридович-2</t>
-  </si>
-  <si>
-    <t>Орлова-3</t>
-  </si>
-  <si>
-    <t>Яковлева-4</t>
-  </si>
-  <si>
-    <t>Флоринская-5</t>
-  </si>
-  <si>
-    <t>Полозова-6</t>
-  </si>
-  <si>
-    <t>Григорьева-1</t>
-  </si>
-  <si>
-    <t>Селькин-2</t>
-  </si>
-  <si>
-    <t>Кузикова-3</t>
-  </si>
-  <si>
-    <t>Синицкая-4</t>
-  </si>
-  <si>
-    <t>Куликова-5</t>
-  </si>
-  <si>
-    <t>Загребельная-6</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>Кузьмина-1</t>
-  </si>
-  <si>
-    <t>Чулкова-2</t>
-  </si>
-  <si>
-    <t>Чулкова-3</t>
-  </si>
-  <si>
-    <t>Бирюкова-4</t>
-  </si>
-  <si>
-    <t>Кушнаренко-5</t>
-  </si>
-  <si>
-    <t>Куликова-6</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>Флоринская-1</t>
-  </si>
-  <si>
-    <t>Степанян-2</t>
-  </si>
-  <si>
-    <t>Калинина-3</t>
-  </si>
-  <si>
-    <t>Грищенко-4</t>
-  </si>
-  <si>
-    <t>Калинина-5</t>
-  </si>
-  <si>
-    <t>Орлова-6</t>
-  </si>
-  <si>
-    <t>Михайлова-1</t>
-  </si>
-  <si>
-    <t>Михайлова-2</t>
-  </si>
-  <si>
-    <t>Куликова-3</t>
-  </si>
-  <si>
-    <t>Спиридович-4</t>
-  </si>
-  <si>
-    <t>Чижкина-5</t>
-  </si>
-  <si>
-    <t>Кузнецова-6</t>
-  </si>
-  <si>
-    <t>9а</t>
-  </si>
-  <si>
-    <t>Автономова-1</t>
-  </si>
-  <si>
-    <t>Синицкая-2</t>
-  </si>
-  <si>
-    <t>Синицкая-3</t>
-  </si>
-  <si>
-    <t>Реппо-4</t>
-  </si>
-  <si>
-    <t>Дубова-5</t>
-  </si>
-  <si>
-    <t>Синицкая-6</t>
-  </si>
-  <si>
-    <t>Орлова-7</t>
-  </si>
-  <si>
-    <t>Георгиева-1</t>
-  </si>
-  <si>
-    <t>Орлова-2</t>
-  </si>
-  <si>
-    <t>Чижкина-3</t>
-  </si>
-  <si>
-    <t>Чижкина-4</t>
-  </si>
-  <si>
-    <t>Орлова-5</t>
-  </si>
-  <si>
-    <t>Бирюкова-6</t>
-  </si>
-  <si>
-    <t>Грищенко-7</t>
-  </si>
-  <si>
-    <t>Волкова-1</t>
-  </si>
-  <si>
-    <t>Платунова-2</t>
+    <t>Кушнаренко-7</t>
+  </si>
+  <si>
+    <t>Куликова-2</t>
+  </si>
+  <si>
+    <t>Чижкина-7</t>
+  </si>
+  <si>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Кушнаренко-3</t>
   </si>
   <si>
     <t>Загребельная-3</t>
   </si>
   <si>
-    <t>Калинина-4</t>
-  </si>
-  <si>
-    <t>Кузьмина-5</t>
-  </si>
-  <si>
-    <t>Дубова-6</t>
-  </si>
-  <si>
-    <t>Волкова-7</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>Кузикова-1</t>
-  </si>
-  <si>
-    <t>Бирюкова-2</t>
-  </si>
-  <si>
-    <t>Грищенко-3</t>
-  </si>
-  <si>
-    <t>Кузьмина-4</t>
-  </si>
-  <si>
-    <t>Степанян-5</t>
-  </si>
-  <si>
-    <t>Грищенко-6</t>
-  </si>
-  <si>
-    <t>Георгиева-7</t>
-  </si>
-  <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>Платунова-1</t>
-  </si>
-  <si>
-    <t>Грищенко-2</t>
-  </si>
-  <si>
-    <t>Михайлова-3</t>
-  </si>
-  <si>
-    <t>Автономова-4</t>
-  </si>
-  <si>
-    <t>Михайлова-5</t>
-  </si>
-  <si>
-    <t>Спиридович-6</t>
-  </si>
-  <si>
-    <t>Степанян-7</t>
-  </si>
-  <si>
-    <t>11а</t>
-  </si>
-  <si>
-    <t>Синицкая-1</t>
-  </si>
-  <si>
-    <t>Кузьмина-2</t>
-  </si>
-  <si>
-    <t>Васильева-3</t>
-  </si>
-  <si>
-    <t>Волкова-4</t>
-  </si>
-  <si>
-    <t>Васильева-5</t>
-  </si>
-  <si>
-    <t>Яковлева-6</t>
-  </si>
-  <si>
-    <t>Михайлова-7</t>
-  </si>
-  <si>
-    <t>11б</t>
-  </si>
-  <si>
-    <t>Калинина-1</t>
-  </si>
-  <si>
-    <t>Васильева-2</t>
-  </si>
-  <si>
-    <t>Дубова-3</t>
-  </si>
-  <si>
-    <t>Михайлова-4</t>
-  </si>
-  <si>
-    <t>Спиридович-5</t>
-  </si>
-  <si>
-    <t>Васильева-6</t>
-  </si>
-  <si>
-    <t>Дубова-7</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Куликова-2</t>
-  </si>
-  <si>
-    <t>5а</t>
-  </si>
-  <si>
-    <t>Загребельная-2</t>
-  </si>
-  <si>
-    <t>Степанян-3</t>
-  </si>
-  <si>
-    <t>Васильева-4</t>
-  </si>
-  <si>
-    <t>Реппо-1</t>
-  </si>
-  <si>
-    <t>Полозова-4</t>
-  </si>
-  <si>
-    <t>Григорьева-5</t>
-  </si>
-  <si>
-    <t>Волкова-3</t>
-  </si>
-  <si>
-    <t>7а</t>
-  </si>
-  <si>
-    <t>Кузнецова-2</t>
-  </si>
-  <si>
-    <t>Реппо-5</t>
-  </si>
-  <si>
-    <t>Кушнаренко-6</t>
-  </si>
-  <si>
-    <t>Платунова-3</t>
-  </si>
-  <si>
-    <t>Волкова-6</t>
-  </si>
-  <si>
-    <t>Кузнецова-5</t>
-  </si>
-  <si>
-    <t>Автономова-2</t>
-  </si>
-  <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>Полозова-3</t>
-  </si>
-  <si>
-    <t>Бирюкова-7</t>
-  </si>
-  <si>
-    <t>Платунова-4</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>Селькин-1</t>
-  </si>
-  <si>
-    <t>Калинина-6</t>
-  </si>
-  <si>
-    <t>Михайлова-6</t>
-  </si>
-  <si>
-    <t>Яковлева-1</t>
-  </si>
-  <si>
-    <t>Чижкина-7</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>5б</t>
-  </si>
-  <si>
-    <t>Кушнаренко-3</t>
-  </si>
-  <si>
-    <t>Степанян-6</t>
-  </si>
-  <si>
-    <t>9в</t>
-  </si>
-  <si>
-    <t>Полозова-2</t>
-  </si>
-  <si>
-    <t>Кузьмина-3</t>
-  </si>
-  <si>
-    <t>Кузьмина-6</t>
-  </si>
-  <si>
-    <t>Кушнаренко-4</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Григорьева-6</t>
-  </si>
-  <si>
-    <t>Реппо-2</t>
-  </si>
-  <si>
     <t>Friday</t>
-  </si>
-  <si>
-    <t>Куликова-7</t>
   </si>
 </sst>
 </file>
@@ -622,689 +632,689 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21"/>
     <row r="22">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
         <v>139</v>
       </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" t="s">
         <v>145</v>
-      </c>
-      <c r="G32" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" t="s">
         <v>147</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
         <v>149</v>
@@ -1312,184 +1322,184 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
         <v>150</v>
       </c>
-      <c r="F36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" t="s">
-        <v>61</v>
-      </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
         <v>151</v>
       </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
         <v>155</v>
       </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s">
-        <v>95</v>
-      </c>
       <c r="H39" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42"/>
     <row r="43">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -1497,425 +1507,425 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G50" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F53" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" t="s">
         <v>62</v>
       </c>
-      <c r="B54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" t="s">
-        <v>34</v>
-      </c>
       <c r="G54" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="G56" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="H56" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="G57" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="H57" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
         <v>97</v>
       </c>
-      <c r="B59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" t="s">
-        <v>101</v>
-      </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="H60" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H61" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63"/>
     <row r="64">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65">
@@ -1923,485 +1933,485 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="G71" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="G72" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="F76" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G77" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G78" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G79" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="H79" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G80" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="G81" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H81" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>157</v>
+      </c>
+      <c r="F82" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" t="s">
+        <v>155</v>
+      </c>
+      <c r="H82" t="s">
         <v>108</v>
-      </c>
-      <c r="E82" t="s">
-        <v>117</v>
-      </c>
-      <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G83" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="H83" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84"/>
     <row r="85">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88">
@@ -2409,403 +2419,415 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="D89" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="F89" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D91" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G92" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="E93" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E94" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F94" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G95" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="E97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" t="s">
+        <v>82</v>
+      </c>
+      <c r="G97" t="s">
         <v>165</v>
-      </c>
-      <c r="F97" t="s">
-        <v>110</v>
-      </c>
-      <c r="G97" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E98" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="G98" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="H98" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="E99" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="G99" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="H99" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="D100" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="E100" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="G100" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F101" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G102" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C103" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="D103" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E103" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="F103" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="G103" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="H103" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="E104" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="G104" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="H104" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/main/resources/xlsx/result.xlsx
+++ b/src/main/resources/xlsx/result.xlsx
@@ -13,525 +13,519 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="172">
   <si>
     <t>Monday</t>
   </si>
   <si>
+    <t>5в</t>
+  </si>
+  <si>
+    <t>Реппо-1</t>
+  </si>
+  <si>
+    <t>Платунова-2</t>
+  </si>
+  <si>
+    <t>Селькин-3</t>
+  </si>
+  <si>
+    <t>Флоринская-4</t>
+  </si>
+  <si>
+    <t>Флоринская-5</t>
+  </si>
+  <si>
+    <t>5б</t>
+  </si>
+  <si>
+    <t>Калинина-1</t>
+  </si>
+  <si>
+    <t>Васильева-2</t>
+  </si>
+  <si>
+    <t>Чижкина-3</t>
+  </si>
+  <si>
+    <t>Степанян-4</t>
+  </si>
+  <si>
+    <t>Васильева-5</t>
+  </si>
+  <si>
     <t>5а</t>
   </si>
   <si>
+    <t>Синицкая-1</t>
+  </si>
+  <si>
+    <t>Кузикова-2</t>
+  </si>
+  <si>
+    <t>Михайлова-3</t>
+  </si>
+  <si>
+    <t>Дубова-4</t>
+  </si>
+  <si>
+    <t>Орлова-5</t>
+  </si>
+  <si>
+    <t>6в</t>
+  </si>
+  <si>
+    <t>Григорьева-1</t>
+  </si>
+  <si>
+    <t>Загребельная-2</t>
+  </si>
+  <si>
+    <t>Синицкая-3</t>
+  </si>
+  <si>
+    <t>Бирюкова-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-5</t>
+  </si>
+  <si>
+    <t>Загребельная-1</t>
+  </si>
+  <si>
+    <t>Кузьмина-2</t>
+  </si>
+  <si>
+    <t>Автономова-3</t>
+  </si>
+  <si>
+    <t>Григорьева-4</t>
+  </si>
+  <si>
+    <t>Яковлева-5</t>
+  </si>
+  <si>
+    <t>6б</t>
+  </si>
+  <si>
+    <t>Грищенко-1</t>
+  </si>
+  <si>
+    <t>Степанян-2</t>
+  </si>
+  <si>
+    <t>Григорьева-3</t>
+  </si>
+  <si>
+    <t>Загребельная-4</t>
+  </si>
+  <si>
+    <t>Волкова-5</t>
+  </si>
+  <si>
+    <t>7а</t>
+  </si>
+  <si>
+    <t>Васильева-1</t>
+  </si>
+  <si>
+    <t>Кузнецова-2</t>
+  </si>
+  <si>
+    <t>Орлова-3</t>
+  </si>
+  <si>
+    <t>Кузнецова-4</t>
+  </si>
+  <si>
+    <t>Григорьева-5</t>
+  </si>
+  <si>
+    <t>Полозова-6</t>
+  </si>
+  <si>
+    <t>Кузикова-1</t>
+  </si>
+  <si>
+    <t>Селькин-2</t>
+  </si>
+  <si>
+    <t>Реппо-3</t>
+  </si>
+  <si>
+    <t>Автономова-4</t>
+  </si>
+  <si>
+    <t>Реппо-5</t>
+  </si>
+  <si>
+    <t>Кузнецова-6</t>
+  </si>
+  <si>
+    <t>7б</t>
+  </si>
+  <si>
+    <t>Селькин-1</t>
+  </si>
+  <si>
+    <t>Бирюкова-2</t>
+  </si>
+  <si>
+    <t>Степанян-3</t>
+  </si>
+  <si>
+    <t>Михайлова-4</t>
+  </si>
+  <si>
+    <t>Калинина-5</t>
+  </si>
+  <si>
+    <t>Спиридович-6</t>
+  </si>
+  <si>
+    <t>8б</t>
+  </si>
+  <si>
+    <t>Яковлева-1</t>
+  </si>
+  <si>
+    <t>Яковлева-2</t>
+  </si>
+  <si>
+    <t>Бирюкова-3</t>
+  </si>
+  <si>
+    <t>Спиридович-4</t>
+  </si>
+  <si>
+    <t>Дубова-5</t>
+  </si>
+  <si>
+    <t>Грищенко-6</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>Кузьмина-1</t>
+  </si>
+  <si>
+    <t>Флоринская-2</t>
+  </si>
+  <si>
+    <t>Чулкова-3</t>
+  </si>
+  <si>
+    <t>Куликова-4</t>
+  </si>
+  <si>
+    <t>Куликова-5</t>
+  </si>
+  <si>
+    <t>Бирюкова-6</t>
+  </si>
+  <si>
+    <t>Георгиева-1</t>
+  </si>
+  <si>
+    <t>Дубова-2</t>
+  </si>
+  <si>
+    <t>Грищенко-3</t>
+  </si>
+  <si>
+    <t>Чижкина-4</t>
+  </si>
+  <si>
+    <t>Полозова-5</t>
+  </si>
+  <si>
+    <t>Яковлева-6</t>
+  </si>
+  <si>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>Степанян-1</t>
+  </si>
+  <si>
+    <t>Калинина-2</t>
+  </si>
+  <si>
+    <t>Кузьмина-3</t>
+  </si>
+  <si>
+    <t>Грищенко-4</t>
+  </si>
+  <si>
+    <t>Грищенко-5</t>
+  </si>
+  <si>
+    <t>Степанян-6</t>
+  </si>
+  <si>
+    <t>Чижкина-7</t>
+  </si>
+  <si>
+    <t>9в</t>
+  </si>
+  <si>
+    <t>Кушнаренко-1</t>
+  </si>
+  <si>
+    <t>Реппо-2</t>
+  </si>
+  <si>
+    <t>Кушнаренко-3</t>
+  </si>
+  <si>
+    <t>Платунова-4</t>
+  </si>
+  <si>
+    <t>Спиридович-5</t>
+  </si>
+  <si>
+    <t>Чижкина-6</t>
+  </si>
+  <si>
+    <t>Куликова-7</t>
+  </si>
+  <si>
+    <t>Чулкова-1</t>
+  </si>
+  <si>
+    <t>Синицкая-2</t>
+  </si>
+  <si>
+    <t>Спиридович-3</t>
+  </si>
+  <si>
+    <t>Полозова-4</t>
+  </si>
+  <si>
+    <t>Кушнаренко-5</t>
+  </si>
+  <si>
+    <t>Калинина-6</t>
+  </si>
+  <si>
+    <t>Дубова-7</t>
+  </si>
+  <si>
+    <t>10б</t>
+  </si>
+  <si>
+    <t>Платунова-1</t>
+  </si>
+  <si>
+    <t>Михайлова-2</t>
+  </si>
+  <si>
+    <t>Васильева-3</t>
+  </si>
+  <si>
+    <t>Калинина-4</t>
+  </si>
+  <si>
+    <t>Платунова-5</t>
+  </si>
+  <si>
+    <t>Кузьмина-6</t>
+  </si>
+  <si>
+    <t>Михайлова-7</t>
+  </si>
+  <si>
+    <t>Флоринская-1</t>
+  </si>
+  <si>
+    <t>Волкова-2</t>
+  </si>
+  <si>
+    <t>Дубова-3</t>
+  </si>
+  <si>
+    <t>Синицкая-4</t>
+  </si>
+  <si>
+    <t>Чижкина-5</t>
+  </si>
+  <si>
+    <t>Васильева-6</t>
+  </si>
+  <si>
+    <t>Степанян-7</t>
+  </si>
+  <si>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>Михайлова-1</t>
+  </si>
+  <si>
+    <t>Грищенко-2</t>
+  </si>
+  <si>
+    <t>Калинина-3</t>
+  </si>
+  <si>
+    <t>Васильева-4</t>
+  </si>
+  <si>
+    <t>Михайлова-5</t>
+  </si>
+  <si>
+    <t>Михайлова-6</t>
+  </si>
+  <si>
+    <t>Георгиева-7</t>
+  </si>
+  <si>
     <t>Волкова-1</t>
   </si>
   <si>
-    <t>Загребельная-2</t>
+    <t>Автономова-2</t>
+  </si>
+  <si>
+    <t>Кузикова-3</t>
+  </si>
+  <si>
+    <t>Кузьмина-4</t>
+  </si>
+  <si>
+    <t>Кузьмина-5</t>
+  </si>
+  <si>
+    <t>Дубова-6</t>
+  </si>
+  <si>
+    <t>Бирюкова-7</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Реппо-4</t>
+  </si>
+  <si>
+    <t>Загребельная-3</t>
+  </si>
+  <si>
+    <t>6а</t>
+  </si>
+  <si>
+    <t>Кузнецова-3</t>
+  </si>
+  <si>
+    <t>Куликова-3</t>
+  </si>
+  <si>
+    <t>Орлова-4</t>
+  </si>
+  <si>
+    <t>7в</t>
+  </si>
+  <si>
+    <t>Синицкая-6</t>
+  </si>
+  <si>
+    <t>Чулкова-2</t>
+  </si>
+  <si>
+    <t>Кушнаренко-4</t>
+  </si>
+  <si>
+    <t>8в</t>
+  </si>
+  <si>
+    <t>Орлова-1</t>
+  </si>
+  <si>
+    <t>Спиридович-2</t>
+  </si>
+  <si>
+    <t>Волкова-3</t>
+  </si>
+  <si>
+    <t>Кузнецова-5</t>
+  </si>
+  <si>
+    <t>Кушнаренко-2</t>
+  </si>
+  <si>
+    <t>Волкова-4</t>
+  </si>
+  <si>
+    <t>Загребельная-5</t>
+  </si>
+  <si>
+    <t>Селькин-4</t>
+  </si>
+  <si>
+    <t>Куликова-6</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>Орлова-6</t>
+  </si>
+  <si>
+    <t>10а</t>
   </si>
   <si>
     <t>Платунова-3</t>
   </si>
   <si>
-    <t>Грищенко-4</t>
-  </si>
-  <si>
-    <t>Куликова-5</t>
-  </si>
-  <si>
-    <t>Михайлова-1</t>
+    <t>Волкова-6</t>
+  </si>
+  <si>
+    <t>Волкова-7</t>
+  </si>
+  <si>
+    <t>11б</t>
+  </si>
+  <si>
+    <t>Грищенко-7</t>
+  </si>
+  <si>
+    <t>Автономова-1</t>
+  </si>
+  <si>
+    <t>Яковлева-4</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Григорьева-2</t>
+  </si>
+  <si>
+    <t>Полозова-3</t>
+  </si>
+  <si>
+    <t>Степанян-5</t>
+  </si>
+  <si>
+    <t>Кузнецова-1</t>
+  </si>
+  <si>
+    <t>Куликова-2</t>
+  </si>
+  <si>
+    <t>Загребельная-6</t>
+  </si>
+  <si>
+    <t>Кушнаренко-6</t>
+  </si>
+  <si>
+    <t>Орлова-7</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
   <si>
     <t>Полозова-2</t>
-  </si>
-  <si>
-    <t>Грищенко-3</t>
-  </si>
-  <si>
-    <t>Калинина-4</t>
-  </si>
-  <si>
-    <t>Григорьева-5</t>
-  </si>
-  <si>
-    <t>5в</t>
-  </si>
-  <si>
-    <t>Григорьева-1</t>
-  </si>
-  <si>
-    <t>Кузикова-2</t>
-  </si>
-  <si>
-    <t>Реппо-3</t>
-  </si>
-  <si>
-    <t>Полозова-4</t>
-  </si>
-  <si>
-    <t>Грищенко-5</t>
-  </si>
-  <si>
-    <t>6в</t>
-  </si>
-  <si>
-    <t>Реппо-1</t>
-  </si>
-  <si>
-    <t>Михайлова-2</t>
-  </si>
-  <si>
-    <t>Кузикова-3</t>
-  </si>
-  <si>
-    <t>Реппо-4</t>
-  </si>
-  <si>
-    <t>Кузьмина-5</t>
-  </si>
-  <si>
-    <t>6а</t>
-  </si>
-  <si>
-    <t>Автономова-1</t>
-  </si>
-  <si>
-    <t>Автономова-2</t>
-  </si>
-  <si>
-    <t>Дубова-3</t>
-  </si>
-  <si>
-    <t>Орлова-4</t>
-  </si>
-  <si>
-    <t>Волкова-5</t>
-  </si>
-  <si>
-    <t>6б</t>
-  </si>
-  <si>
-    <t>Флоринская-1</t>
-  </si>
-  <si>
-    <t>Орлова-2</t>
-  </si>
-  <si>
-    <t>Васильева-3</t>
-  </si>
-  <si>
-    <t>Селькин-4</t>
-  </si>
-  <si>
-    <t>Михайлова-5</t>
-  </si>
-  <si>
-    <t>7б</t>
-  </si>
-  <si>
-    <t>Яковлева-1</t>
-  </si>
-  <si>
-    <t>Платунова-2</t>
-  </si>
-  <si>
-    <t>Спиридович-3</t>
-  </si>
-  <si>
-    <t>Дубова-4</t>
-  </si>
-  <si>
-    <t>Степанян-5</t>
-  </si>
-  <si>
-    <t>Спиридович-6</t>
-  </si>
-  <si>
-    <t>7в</t>
-  </si>
-  <si>
-    <t>Чулкова-1</t>
-  </si>
-  <si>
-    <t>Кузнецова-2</t>
-  </si>
-  <si>
-    <t>Михайлова-3</t>
-  </si>
-  <si>
-    <t>Кушнаренко-4</t>
-  </si>
-  <si>
-    <t>Кушнаренко-5</t>
-  </si>
-  <si>
-    <t>Полозова-6</t>
-  </si>
-  <si>
-    <t>7а</t>
-  </si>
-  <si>
-    <t>Кузьмина-1</t>
-  </si>
-  <si>
-    <t>Кушнаренко-2</t>
-  </si>
-  <si>
-    <t>Полозова-3</t>
-  </si>
-  <si>
-    <t>Платунова-4</t>
-  </si>
-  <si>
-    <t>Яковлева-5</t>
-  </si>
-  <si>
-    <t>Грищенко-6</t>
-  </si>
-  <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>Загребельная-1</t>
-  </si>
-  <si>
-    <t>Григорьева-2</t>
-  </si>
-  <si>
-    <t>Орлова-3</t>
-  </si>
-  <si>
-    <t>Загребельная-4</t>
-  </si>
-  <si>
-    <t>Кузнецова-5</t>
-  </si>
-  <si>
-    <t>Кузнецова-6</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>Васильева-1</t>
-  </si>
-  <si>
-    <t>Флоринская-2</t>
-  </si>
-  <si>
-    <t>Волкова-3</t>
-  </si>
-  <si>
-    <t>Михайлова-4</t>
-  </si>
-  <si>
-    <t>Орлова-5</t>
-  </si>
-  <si>
-    <t>Волкова-6</t>
-  </si>
-  <si>
-    <t>Синицкая-1</t>
-  </si>
-  <si>
-    <t>Чулкова-2</t>
-  </si>
-  <si>
-    <t>Григорьева-3</t>
-  </si>
-  <si>
-    <t>Синицкая-4</t>
-  </si>
-  <si>
-    <t>Дубова-5</t>
-  </si>
-  <si>
-    <t>Степанян-6</t>
-  </si>
-  <si>
-    <t>9а</t>
-  </si>
-  <si>
-    <t>Георгиева-1</t>
-  </si>
-  <si>
-    <t>Калинина-2</t>
-  </si>
-  <si>
-    <t>Калинина-3</t>
-  </si>
-  <si>
-    <t>Васильева-4</t>
-  </si>
-  <si>
-    <t>Калинина-5</t>
-  </si>
-  <si>
-    <t>Кушнаренко-6</t>
-  </si>
-  <si>
-    <t>Орлова-7</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>Селькин-1</t>
-  </si>
-  <si>
-    <t>Кузьмина-2</t>
-  </si>
-  <si>
-    <t>Синицкая-3</t>
-  </si>
-  <si>
-    <t>Куликова-4</t>
-  </si>
-  <si>
-    <t>Васильева-5</t>
-  </si>
-  <si>
-    <t>Дубова-6</t>
-  </si>
-  <si>
-    <t>Георгиева-7</t>
-  </si>
-  <si>
-    <t>9в</t>
-  </si>
-  <si>
-    <t>Кузнецова-1</t>
-  </si>
-  <si>
-    <t>Синицкая-2</t>
-  </si>
-  <si>
-    <t>Кузьмина-3</t>
-  </si>
-  <si>
-    <t>Кузьмина-4</t>
-  </si>
-  <si>
-    <t>Флоринская-5</t>
-  </si>
-  <si>
-    <t>Орлова-6</t>
-  </si>
-  <si>
-    <t>Бирюкова-7</t>
-  </si>
-  <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>Платунова-1</t>
-  </si>
-  <si>
-    <t>Волкова-2</t>
-  </si>
-  <si>
-    <t>Селькин-3</t>
-  </si>
-  <si>
-    <t>Волкова-4</t>
-  </si>
-  <si>
-    <t>Платунова-5</t>
-  </si>
-  <si>
-    <t>Калинина-6</t>
-  </si>
-  <si>
-    <t>Степанян-7</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>Кузикова-1</t>
-  </si>
-  <si>
-    <t>Яковлева-2</t>
-  </si>
-  <si>
-    <t>Бирюкова-3</t>
-  </si>
-  <si>
-    <t>Флоринская-4</t>
-  </si>
-  <si>
-    <t>Бирюкова-5</t>
-  </si>
-  <si>
-    <t>Бирюкова-6</t>
-  </si>
-  <si>
-    <t>Михайлова-7</t>
-  </si>
-  <si>
-    <t>11б</t>
-  </si>
-  <si>
-    <t>Калинина-1</t>
-  </si>
-  <si>
-    <t>Степанян-2</t>
-  </si>
-  <si>
-    <t>Чижкина-3</t>
-  </si>
-  <si>
-    <t>Автономова-4</t>
-  </si>
-  <si>
-    <t>Чижкина-5</t>
-  </si>
-  <si>
-    <t>Васильева-6</t>
-  </si>
-  <si>
-    <t>Грищенко-7</t>
-  </si>
-  <si>
-    <t>Грищенко-1</t>
-  </si>
-  <si>
-    <t>Бирюкова-2</t>
-  </si>
-  <si>
-    <t>Степанян-3</t>
-  </si>
-  <si>
-    <t>Бирюкова-4</t>
-  </si>
-  <si>
-    <t>Спиридович-5</t>
-  </si>
-  <si>
-    <t>Синицкая-6</t>
-  </si>
-  <si>
-    <t>Дубова-7</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>5б</t>
-  </si>
-  <si>
-    <t>Чижкина-4</t>
-  </si>
-  <si>
-    <t>Спиридович-2</t>
-  </si>
-  <si>
-    <t>Загребельная-5</t>
-  </si>
-  <si>
-    <t>Григорьева-4</t>
-  </si>
-  <si>
-    <t>Дубова-2</t>
-  </si>
-  <si>
-    <t>Чулкова-3</t>
-  </si>
-  <si>
-    <t>Яковлева-6</t>
-  </si>
-  <si>
-    <t>Кушнаренко-1</t>
-  </si>
-  <si>
-    <t>Реппо-5</t>
-  </si>
-  <si>
-    <t>Орлова-1</t>
-  </si>
-  <si>
-    <t>Полозова-5</t>
-  </si>
-  <si>
-    <t>Загребельная-6</t>
-  </si>
-  <si>
-    <t>Васильева-2</t>
-  </si>
-  <si>
-    <t>Куликова-6</t>
-  </si>
-  <si>
-    <t>Степанян-4</t>
-  </si>
-  <si>
-    <t>Куликова-7</t>
-  </si>
-  <si>
-    <t>Кузьмина-6</t>
-  </si>
-  <si>
-    <t>Кузнецова-3</t>
-  </si>
-  <si>
-    <t>Автономова-3</t>
-  </si>
-  <si>
-    <t>Селькин-2</t>
-  </si>
-  <si>
-    <t>Яковлева-4</t>
-  </si>
-  <si>
-    <t>Михайлова-6</t>
-  </si>
-  <si>
-    <t>Степанян-1</t>
-  </si>
-  <si>
-    <t>Спиридович-4</t>
-  </si>
-  <si>
-    <t>Волкова-7</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Реппо-2</t>
-  </si>
-  <si>
-    <t>Куликова-3</t>
-  </si>
-  <si>
-    <t>Грищенко-2</t>
-  </si>
-  <si>
-    <t>Кузнецова-4</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>Чижкина-6</t>
-  </si>
-  <si>
-    <t>Кушнаренко-7</t>
-  </si>
-  <si>
-    <t>Куликова-2</t>
-  </si>
-  <si>
-    <t>Чижкина-7</t>
-  </si>
-  <si>
-    <t>11а</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Кушнаренко-3</t>
-  </si>
-  <si>
-    <t>Загребельная-3</t>
   </si>
   <si>
     <t>Friday</t>
@@ -612,67 +606,67 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -735,325 +729,325 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>74</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>75</v>
-      </c>
-      <c r="G13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>80</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>82</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>83</v>
-      </c>
-      <c r="H14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>87</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>89</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>90</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>91</v>
-      </c>
-      <c r="H15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
         <v>93</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>94</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>95</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>96</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>97</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
         <v>101</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>104</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>105</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
         <v>109</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>111</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>112</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>113</v>
-      </c>
-      <c r="F18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
         <v>117</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>118</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>119</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>120</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
         <v>125</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>126</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>127</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>128</v>
-      </c>
-      <c r="F20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21"/>
     <row r="22">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -1061,19 +1055,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -1084,159 +1078,159 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
         <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
@@ -1245,687 +1239,687 @@
         <v>144</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
         <v>148</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
         <v>151</v>
       </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" t="s">
-        <v>76</v>
-      </c>
       <c r="H37" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="H38" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
         <v>155</v>
-      </c>
-      <c r="H39" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="H41" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42"/>
     <row r="43">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="H56" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
         <v>137</v>
       </c>
-      <c r="F57" t="s">
-        <v>122</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
       <c r="H57" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H60" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G61" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63"/>
     <row r="64">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65">
@@ -1933,525 +1927,525 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="F66" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" t="s">
         <v>24</v>
-      </c>
-      <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F69" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="G71" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G74" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G75" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
         <v>57</v>
       </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="G76" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E77" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="G77" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H77" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="H78" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="F79" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="G79" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="H79" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F80" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="G80" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E81" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="F81" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G81" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H81" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="F82" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="G82" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" t="s">
         <v>155</v>
-      </c>
-      <c r="H82" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="F83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
         <v>98</v>
-      </c>
-      <c r="G83" t="s">
-        <v>150</v>
-      </c>
-      <c r="H83" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="84"/>
     <row r="85">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F87" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C88" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>135</v>
+      </c>
+      <c r="F88" t="s">
         <v>119</v>
-      </c>
-      <c r="D88" t="s">
-        <v>80</v>
-      </c>
-      <c r="E88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F88" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90">
@@ -2459,36 +2453,36 @@
         <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="D90" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F90" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
         <v>144</v>
@@ -2502,316 +2496,316 @@
         <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="E92" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F92" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G92" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G93" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D94" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="E94" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G94" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="F96" t="s">
         <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G97" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B99" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H99" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E100" t="s">
+        <v>159</v>
+      </c>
+      <c r="F100" t="s">
         <v>89</v>
       </c>
-      <c r="F100" t="s">
-        <v>75</v>
-      </c>
       <c r="G100" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="H100" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="H101" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="G102" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E103" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G103" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="H103" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C104" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="G104" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="H104" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105"/>

--- a/src/main/resources/xlsx/result.xlsx
+++ b/src/main/resources/xlsx/result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="174">
   <si>
     <t>Monday</t>
   </si>
@@ -21,514 +21,520 @@
     <t>5в</t>
   </si>
   <si>
+    <t>Загребельная-1</t>
+  </si>
+  <si>
+    <t>Яковлева-2</t>
+  </si>
+  <si>
+    <t>Калинина-3</t>
+  </si>
+  <si>
+    <t>Степанян-4</t>
+  </si>
+  <si>
+    <t>Калинина-5</t>
+  </si>
+  <si>
+    <t>5б</t>
+  </si>
+  <si>
+    <t>Флоринская-1</t>
+  </si>
+  <si>
+    <t>Орлова-2</t>
+  </si>
+  <si>
+    <t>Дубова-3</t>
+  </si>
+  <si>
+    <t>Куликова-4</t>
+  </si>
+  <si>
+    <t>Чижкина-5</t>
+  </si>
+  <si>
+    <t>5а</t>
+  </si>
+  <si>
+    <t>Георгиева-1</t>
+  </si>
+  <si>
+    <t>Синицкая-2</t>
+  </si>
+  <si>
+    <t>Кушнаренко-3</t>
+  </si>
+  <si>
+    <t>Михайлова-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-5</t>
+  </si>
+  <si>
+    <t>6в</t>
+  </si>
+  <si>
+    <t>Григорьева-1</t>
+  </si>
+  <si>
+    <t>Реппо-2</t>
+  </si>
+  <si>
+    <t>Кузьмина-3</t>
+  </si>
+  <si>
+    <t>Грищенко-4</t>
+  </si>
+  <si>
+    <t>Волкова-5</t>
+  </si>
+  <si>
+    <t>6а</t>
+  </si>
+  <si>
+    <t>Васильева-1</t>
+  </si>
+  <si>
+    <t>Грищенко-2</t>
+  </si>
+  <si>
+    <t>Куликова-3</t>
+  </si>
+  <si>
+    <t>Полозова-4</t>
+  </si>
+  <si>
+    <t>Кушнаренко-5</t>
+  </si>
+  <si>
+    <t>Автономова-1</t>
+  </si>
+  <si>
+    <t>Михайлова-2</t>
+  </si>
+  <si>
+    <t>Кузикова-3</t>
+  </si>
+  <si>
+    <t>Дубова-4</t>
+  </si>
+  <si>
+    <t>Степанян-5</t>
+  </si>
+  <si>
+    <t>7б</t>
+  </si>
+  <si>
+    <t>Степанян-1</t>
+  </si>
+  <si>
+    <t>Кушнаренко-2</t>
+  </si>
+  <si>
+    <t>Михайлова-3</t>
+  </si>
+  <si>
+    <t>Селькин-4</t>
+  </si>
+  <si>
+    <t>Полозова-5</t>
+  </si>
+  <si>
+    <t>Степанян-6</t>
+  </si>
+  <si>
+    <t>Грищенко-1</t>
+  </si>
+  <si>
+    <t>Дубова-2</t>
+  </si>
+  <si>
+    <t>Синицкая-3</t>
+  </si>
+  <si>
+    <t>Синицкая-4</t>
+  </si>
+  <si>
+    <t>Васильева-5</t>
+  </si>
+  <si>
+    <t>Куликова-6</t>
+  </si>
+  <si>
+    <t>7а</t>
+  </si>
+  <si>
+    <t>Михайлова-1</t>
+  </si>
+  <si>
+    <t>Григорьева-2</t>
+  </si>
+  <si>
+    <t>Григорьева-3</t>
+  </si>
+  <si>
+    <t>Кузьмина-4</t>
+  </si>
+  <si>
+    <t>Григорьева-5</t>
+  </si>
+  <si>
+    <t>Орлова-6</t>
+  </si>
+  <si>
+    <t>8в</t>
+  </si>
+  <si>
+    <t>Орлова-1</t>
+  </si>
+  <si>
+    <t>Куликова-2</t>
+  </si>
+  <si>
+    <t>Чулкова-3</t>
+  </si>
+  <si>
+    <t>Флоринская-4</t>
+  </si>
+  <si>
+    <t>Платунова-5</t>
+  </si>
+  <si>
+    <t>Дубова-6</t>
+  </si>
+  <si>
+    <t>8б</t>
+  </si>
+  <si>
+    <t>Яковлева-1</t>
+  </si>
+  <si>
+    <t>Степанян-2</t>
+  </si>
+  <si>
+    <t>Васильева-3</t>
+  </si>
+  <si>
+    <t>Реппо-4</t>
+  </si>
+  <si>
+    <t>Орлова-5</t>
+  </si>
+  <si>
+    <t>Васильева-6</t>
+  </si>
+  <si>
+    <t>Кузнецова-1</t>
+  </si>
+  <si>
+    <t>Полозова-2</t>
+  </si>
+  <si>
+    <t>Степанян-3</t>
+  </si>
+  <si>
+    <t>Волкова-4</t>
+  </si>
+  <si>
+    <t>Куликова-5</t>
+  </si>
+  <si>
+    <t>Грищенко-6</t>
+  </si>
+  <si>
+    <t>9в</t>
+  </si>
+  <si>
+    <t>Чулкова-1</t>
+  </si>
+  <si>
+    <t>Кузикова-2</t>
+  </si>
+  <si>
+    <t>Грищенко-3</t>
+  </si>
+  <si>
+    <t>Спиридович-4</t>
+  </si>
+  <si>
+    <t>Реппо-5</t>
+  </si>
+  <si>
+    <t>Калинина-6</t>
+  </si>
+  <si>
+    <t>Грищенко-7</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>Кузьмина-1</t>
+  </si>
+  <si>
+    <t>Платунова-2</t>
+  </si>
+  <si>
+    <t>Чижкина-3</t>
+  </si>
+  <si>
+    <t>Платунова-4</t>
+  </si>
+  <si>
+    <t>Грищенко-5</t>
+  </si>
+  <si>
+    <t>Бирюкова-6</t>
+  </si>
+  <si>
+    <t>Волкова-7</t>
+  </si>
+  <si>
     <t>Реппо-1</t>
   </si>
   <si>
-    <t>Платунова-2</t>
+    <t>Кузнецова-2</t>
+  </si>
+  <si>
+    <t>Реппо-3</t>
+  </si>
+  <si>
+    <t>Васильева-4</t>
+  </si>
+  <si>
+    <t>Михайлова-5</t>
+  </si>
+  <si>
+    <t>Волкова-6</t>
+  </si>
+  <si>
+    <t>Бирюкова-7</t>
+  </si>
+  <si>
+    <t>10б</t>
+  </si>
+  <si>
+    <t>Калинина-1</t>
+  </si>
+  <si>
+    <t>Кузьмина-2</t>
+  </si>
+  <si>
+    <t>Волкова-3</t>
+  </si>
+  <si>
+    <t>Чижкина-4</t>
+  </si>
+  <si>
+    <t>Дубова-5</t>
+  </si>
+  <si>
+    <t>Михайлова-6</t>
+  </si>
+  <si>
+    <t>Георгиева-7</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
+    <t>Синицкая-1</t>
+  </si>
+  <si>
+    <t>Калинина-2</t>
+  </si>
+  <si>
+    <t>Бирюкова-3</t>
+  </si>
+  <si>
+    <t>Автономова-4</t>
+  </si>
+  <si>
+    <t>Кузьмина-5</t>
+  </si>
+  <si>
+    <t>Синицкая-6</t>
+  </si>
+  <si>
+    <t>Степанян-7</t>
+  </si>
+  <si>
+    <t>11б</t>
+  </si>
+  <si>
+    <t>Платунова-1</t>
+  </si>
+  <si>
+    <t>Флоринская-2</t>
   </si>
   <si>
     <t>Селькин-3</t>
   </si>
   <si>
-    <t>Флоринская-4</t>
+    <t>Калинина-4</t>
+  </si>
+  <si>
+    <t>Яковлева-5</t>
+  </si>
+  <si>
+    <t>Чижкина-6</t>
+  </si>
+  <si>
+    <t>Михайлова-7</t>
+  </si>
+  <si>
+    <t>Селькин-1</t>
+  </si>
+  <si>
+    <t>Спиридович-2</t>
+  </si>
+  <si>
+    <t>Спиридович-3</t>
+  </si>
+  <si>
+    <t>Яковлева-4</t>
+  </si>
+  <si>
+    <t>Спиридович-5</t>
+  </si>
+  <si>
+    <t>Яковлева-6</t>
+  </si>
+  <si>
+    <t>Чижкина-7</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Автономова-3</t>
+  </si>
+  <si>
+    <t>Кушнаренко-4</t>
+  </si>
+  <si>
+    <t>Загребельная-5</t>
+  </si>
+  <si>
+    <t>Волкова-1</t>
+  </si>
+  <si>
+    <t>Григорьева-4</t>
+  </si>
+  <si>
+    <t>6б</t>
+  </si>
+  <si>
+    <t>Васильева-2</t>
+  </si>
+  <si>
+    <t>Кушнаренко-1</t>
+  </si>
+  <si>
+    <t>Автономова-2</t>
+  </si>
+  <si>
+    <t>Бирюкова-4</t>
+  </si>
+  <si>
+    <t>Волкова-2</t>
+  </si>
+  <si>
+    <t>7в</t>
+  </si>
+  <si>
+    <t>Полозова-3</t>
+  </si>
+  <si>
+    <t>Кузнецова-4</t>
   </si>
   <si>
     <t>Флоринская-5</t>
   </si>
   <si>
-    <t>5б</t>
-  </si>
-  <si>
-    <t>Калинина-1</t>
-  </si>
-  <si>
-    <t>Васильева-2</t>
-  </si>
-  <si>
-    <t>Чижкина-3</t>
-  </si>
-  <si>
-    <t>Степанян-4</t>
-  </si>
-  <si>
-    <t>Васильева-5</t>
-  </si>
-  <si>
-    <t>5а</t>
-  </si>
-  <si>
-    <t>Синицкая-1</t>
-  </si>
-  <si>
-    <t>Кузикова-2</t>
-  </si>
-  <si>
-    <t>Михайлова-3</t>
-  </si>
-  <si>
-    <t>Дубова-4</t>
-  </si>
-  <si>
-    <t>Орлова-5</t>
-  </si>
-  <si>
-    <t>6в</t>
-  </si>
-  <si>
-    <t>Григорьева-1</t>
+    <t>Кушнаренко-6</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>Кузикова-1</t>
+  </si>
+  <si>
+    <t>Орлова-3</t>
+  </si>
+  <si>
+    <t>Платунова-3</t>
+  </si>
+  <si>
+    <t>Спиридович-6</t>
+  </si>
+  <si>
+    <t>Загребельная-3</t>
+  </si>
+  <si>
+    <t>Кузнецова-5</t>
+  </si>
+  <si>
+    <t>Кузнецова-6</t>
+  </si>
+  <si>
+    <t>Чулкова-2</t>
+  </si>
+  <si>
+    <t>Дубова-7</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Селькин-2</t>
+  </si>
+  <si>
+    <t>Орлова-4</t>
+  </si>
+  <si>
+    <t>Загребельная-6</t>
+  </si>
+  <si>
+    <t>Григорьева-6</t>
+  </si>
+  <si>
+    <t>Загребельная-4</t>
+  </si>
+  <si>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>Кушнаренко-7</t>
+  </si>
+  <si>
+    <t>Бирюкова-2</t>
+  </si>
+  <si>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
   <si>
     <t>Загребельная-2</t>
   </si>
   <si>
-    <t>Синицкая-3</t>
-  </si>
-  <si>
-    <t>Бирюкова-4</t>
-  </si>
-  <si>
-    <t>Бирюкова-5</t>
-  </si>
-  <si>
-    <t>Загребельная-1</t>
-  </si>
-  <si>
-    <t>Кузьмина-2</t>
-  </si>
-  <si>
-    <t>Автономова-3</t>
-  </si>
-  <si>
-    <t>Григорьева-4</t>
-  </si>
-  <si>
-    <t>Яковлева-5</t>
-  </si>
-  <si>
-    <t>6б</t>
-  </si>
-  <si>
-    <t>Грищенко-1</t>
-  </si>
-  <si>
-    <t>Степанян-2</t>
-  </si>
-  <si>
-    <t>Григорьева-3</t>
-  </si>
-  <si>
-    <t>Загребельная-4</t>
-  </si>
-  <si>
-    <t>Волкова-5</t>
-  </si>
-  <si>
-    <t>7а</t>
-  </si>
-  <si>
-    <t>Васильева-1</t>
-  </si>
-  <si>
-    <t>Кузнецова-2</t>
-  </si>
-  <si>
-    <t>Орлова-3</t>
-  </si>
-  <si>
-    <t>Кузнецова-4</t>
-  </si>
-  <si>
-    <t>Григорьева-5</t>
+    <t>Кузьмина-6</t>
+  </si>
+  <si>
+    <t>Орлова-7</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
   <si>
     <t>Полозова-6</t>
   </si>
   <si>
-    <t>Кузикова-1</t>
-  </si>
-  <si>
-    <t>Селькин-2</t>
-  </si>
-  <si>
-    <t>Реппо-3</t>
-  </si>
-  <si>
-    <t>Автономова-4</t>
-  </si>
-  <si>
-    <t>Реппо-5</t>
-  </si>
-  <si>
-    <t>Кузнецова-6</t>
-  </si>
-  <si>
-    <t>7б</t>
-  </si>
-  <si>
-    <t>Селькин-1</t>
-  </si>
-  <si>
-    <t>Бирюкова-2</t>
-  </si>
-  <si>
-    <t>Степанян-3</t>
-  </si>
-  <si>
-    <t>Михайлова-4</t>
-  </si>
-  <si>
-    <t>Калинина-5</t>
-  </si>
-  <si>
-    <t>Спиридович-6</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>Яковлева-1</t>
-  </si>
-  <si>
-    <t>Яковлева-2</t>
-  </si>
-  <si>
-    <t>Бирюкова-3</t>
-  </si>
-  <si>
-    <t>Спиридович-4</t>
-  </si>
-  <si>
-    <t>Дубова-5</t>
-  </si>
-  <si>
-    <t>Грищенко-6</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>Кузьмина-1</t>
-  </si>
-  <si>
-    <t>Флоринская-2</t>
-  </si>
-  <si>
-    <t>Чулкова-3</t>
-  </si>
-  <si>
-    <t>Куликова-4</t>
-  </si>
-  <si>
-    <t>Куликова-5</t>
-  </si>
-  <si>
-    <t>Бирюкова-6</t>
-  </si>
-  <si>
-    <t>Георгиева-1</t>
-  </si>
-  <si>
-    <t>Дубова-2</t>
-  </si>
-  <si>
-    <t>Грищенко-3</t>
-  </si>
-  <si>
-    <t>Чижкина-4</t>
-  </si>
-  <si>
-    <t>Полозова-5</t>
-  </si>
-  <si>
-    <t>Яковлева-6</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>Степанян-1</t>
-  </si>
-  <si>
-    <t>Калинина-2</t>
-  </si>
-  <si>
-    <t>Кузьмина-3</t>
-  </si>
-  <si>
-    <t>Грищенко-4</t>
-  </si>
-  <si>
-    <t>Грищенко-5</t>
-  </si>
-  <si>
-    <t>Степанян-6</t>
-  </si>
-  <si>
-    <t>Чижкина-7</t>
-  </si>
-  <si>
-    <t>9в</t>
-  </si>
-  <si>
-    <t>Кушнаренко-1</t>
-  </si>
-  <si>
-    <t>Реппо-2</t>
-  </si>
-  <si>
-    <t>Кушнаренко-3</t>
-  </si>
-  <si>
-    <t>Платунова-4</t>
-  </si>
-  <si>
-    <t>Спиридович-5</t>
-  </si>
-  <si>
-    <t>Чижкина-6</t>
-  </si>
-  <si>
-    <t>Куликова-7</t>
-  </si>
-  <si>
-    <t>Чулкова-1</t>
-  </si>
-  <si>
-    <t>Синицкая-2</t>
-  </si>
-  <si>
-    <t>Спиридович-3</t>
-  </si>
-  <si>
-    <t>Полозова-4</t>
-  </si>
-  <si>
-    <t>Кушнаренко-5</t>
-  </si>
-  <si>
-    <t>Калинина-6</t>
-  </si>
-  <si>
-    <t>Дубова-7</t>
-  </si>
-  <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>Платунова-1</t>
-  </si>
-  <si>
-    <t>Михайлова-2</t>
-  </si>
-  <si>
-    <t>Васильева-3</t>
-  </si>
-  <si>
-    <t>Калинина-4</t>
-  </si>
-  <si>
-    <t>Платунова-5</t>
-  </si>
-  <si>
-    <t>Кузьмина-6</t>
-  </si>
-  <si>
-    <t>Михайлова-7</t>
-  </si>
-  <si>
-    <t>Флоринская-1</t>
-  </si>
-  <si>
-    <t>Волкова-2</t>
-  </si>
-  <si>
-    <t>Дубова-3</t>
-  </si>
-  <si>
-    <t>Синицкая-4</t>
-  </si>
-  <si>
-    <t>Чижкина-5</t>
-  </si>
-  <si>
-    <t>Васильева-6</t>
-  </si>
-  <si>
-    <t>Степанян-7</t>
-  </si>
-  <si>
-    <t>11а</t>
-  </si>
-  <si>
-    <t>Михайлова-1</t>
-  </si>
-  <si>
-    <t>Грищенко-2</t>
-  </si>
-  <si>
-    <t>Калинина-3</t>
-  </si>
-  <si>
-    <t>Васильева-4</t>
-  </si>
-  <si>
-    <t>Михайлова-5</t>
-  </si>
-  <si>
-    <t>Михайлова-6</t>
-  </si>
-  <si>
-    <t>Георгиева-7</t>
-  </si>
-  <si>
-    <t>Волкова-1</t>
-  </si>
-  <si>
-    <t>Автономова-2</t>
-  </si>
-  <si>
-    <t>Кузикова-3</t>
-  </si>
-  <si>
-    <t>Кузьмина-4</t>
-  </si>
-  <si>
-    <t>Кузьмина-5</t>
-  </si>
-  <si>
-    <t>Дубова-6</t>
-  </si>
-  <si>
-    <t>Бирюкова-7</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Реппо-4</t>
-  </si>
-  <si>
-    <t>Загребельная-3</t>
-  </si>
-  <si>
-    <t>6а</t>
-  </si>
-  <si>
     <t>Кузнецова-3</t>
-  </si>
-  <si>
-    <t>Куликова-3</t>
-  </si>
-  <si>
-    <t>Орлова-4</t>
-  </si>
-  <si>
-    <t>7в</t>
-  </si>
-  <si>
-    <t>Синицкая-6</t>
-  </si>
-  <si>
-    <t>Чулкова-2</t>
-  </si>
-  <si>
-    <t>Кушнаренко-4</t>
-  </si>
-  <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>Орлова-1</t>
-  </si>
-  <si>
-    <t>Спиридович-2</t>
-  </si>
-  <si>
-    <t>Волкова-3</t>
-  </si>
-  <si>
-    <t>Кузнецова-5</t>
-  </si>
-  <si>
-    <t>Кушнаренко-2</t>
-  </si>
-  <si>
-    <t>Волкова-4</t>
-  </si>
-  <si>
-    <t>Загребельная-5</t>
-  </si>
-  <si>
-    <t>Селькин-4</t>
-  </si>
-  <si>
-    <t>Куликова-6</t>
-  </si>
-  <si>
-    <t>9а</t>
-  </si>
-  <si>
-    <t>Орлова-6</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>Платунова-3</t>
-  </si>
-  <si>
-    <t>Волкова-6</t>
-  </si>
-  <si>
-    <t>Волкова-7</t>
-  </si>
-  <si>
-    <t>11б</t>
-  </si>
-  <si>
-    <t>Грищенко-7</t>
-  </si>
-  <si>
-    <t>Автономова-1</t>
-  </si>
-  <si>
-    <t>Яковлева-4</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Григорьева-2</t>
-  </si>
-  <si>
-    <t>Полозова-3</t>
-  </si>
-  <si>
-    <t>Степанян-5</t>
-  </si>
-  <si>
-    <t>Кузнецова-1</t>
-  </si>
-  <si>
-    <t>Куликова-2</t>
-  </si>
-  <si>
-    <t>Загребельная-6</t>
-  </si>
-  <si>
-    <t>Кушнаренко-6</t>
-  </si>
-  <si>
-    <t>Орлова-7</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Полозова-2</t>
-  </si>
-  <si>
-    <t>Friday</t>
   </si>
 </sst>
 </file>
@@ -666,27 +672,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -821,7 +827,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -896,7 +902,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>92</v>
@@ -948,229 +954,229 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21"/>
     <row r="22">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
@@ -1178,114 +1184,114 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
@@ -1293,22 +1299,22 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
         <v>106</v>
@@ -1319,77 +1325,77 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -1397,83 +1403,83 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
         <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42"/>
     <row r="43">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
@@ -1481,36 +1487,36 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
         <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
         <v>24</v>
@@ -1521,171 +1527,171 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="F50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" t="s">
         <v>140</v>
       </c>
-      <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>153</v>
       </c>
-      <c r="E53" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
       <c r="G53" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
@@ -1693,22 +1699,22 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
@@ -1716,74 +1722,74 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G56" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="H56" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H57" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
@@ -1791,51 +1797,51 @@
         <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="F58" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H58" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H59" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -1843,226 +1849,226 @@
         <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" t="s">
         <v>156</v>
-      </c>
-      <c r="B61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" t="s">
-        <v>60</v>
-      </c>
-      <c r="F61" t="s">
-        <v>54</v>
-      </c>
-      <c r="G61" t="s">
-        <v>154</v>
-      </c>
-      <c r="H61" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G62" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63"/>
     <row r="64">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" t="s">
         <v>132</v>
       </c>
-      <c r="B69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" t="s">
-        <v>88</v>
-      </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="G71" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72">
@@ -2070,114 +2076,114 @@
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="G75" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77">
@@ -2185,25 +2191,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E77" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78">
@@ -2211,100 +2217,100 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E79" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="H79" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G80" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="G81" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="H81" t="s">
         <v>106</v>
@@ -2312,54 +2318,54 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="G82" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H82" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" t="s">
+        <v>151</v>
+      </c>
+      <c r="H83" t="s">
         <v>156</v>
-      </c>
-      <c r="B83" t="s">
-        <v>107</v>
-      </c>
-      <c r="C83" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" t="s">
-        <v>126</v>
-      </c>
-      <c r="G83" t="s">
-        <v>82</v>
-      </c>
-      <c r="H83" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="84"/>
@@ -2370,122 +2376,122 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E86" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E87" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F88" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E90" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="F90" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="F91" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92">
@@ -2493,68 +2499,68 @@
         <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E92" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D93" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="E93" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G93" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F94" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95">
@@ -2562,68 +2568,68 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G95" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G96" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="G97" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98">
@@ -2631,51 +2637,51 @@
         <v>76</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F98" t="s">
         <v>74</v>
       </c>
       <c r="G98" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="G99" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="H99" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100">
@@ -2683,25 +2689,25 @@
         <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E100" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="F100" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G100" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="H100" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101">
@@ -2709,103 +2715,103 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C101" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="H101" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="D102" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E102" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F102" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="G102" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="D103" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="E103" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G103" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="H103" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" t="s">
+        <v>80</v>
+      </c>
+      <c r="F104" t="s">
+        <v>89</v>
+      </c>
+      <c r="G104" t="s">
+        <v>97</v>
+      </c>
+      <c r="H104" t="s">
         <v>114</v>
-      </c>
-      <c r="B104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C104" t="s">
-        <v>108</v>
-      </c>
-      <c r="D104" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>6</v>
-      </c>
-      <c r="G104" t="s">
-        <v>69</v>
-      </c>
-      <c r="H104" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="105"/>

--- a/src/main/resources/xlsx/result.xlsx
+++ b/src/main/resources/xlsx/result.xlsx
@@ -13,528 +13,525 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="173">
   <si>
     <t>Monday</t>
   </si>
   <si>
+    <t>5б</t>
+  </si>
+  <si>
+    <t>Грищенко-1</t>
+  </si>
+  <si>
+    <t>Селькин-2</t>
+  </si>
+  <si>
+    <t>Платунова-3</t>
+  </si>
+  <si>
+    <t>Полозова-4</t>
+  </si>
+  <si>
+    <t>Орлова-5</t>
+  </si>
+  <si>
+    <t>Селькин-1</t>
+  </si>
+  <si>
+    <t>Реппо-2</t>
+  </si>
+  <si>
+    <t>Волкова-3</t>
+  </si>
+  <si>
+    <t>Спиридович-4</t>
+  </si>
+  <si>
+    <t>Куликова-5</t>
+  </si>
+  <si>
+    <t>5а</t>
+  </si>
+  <si>
+    <t>Михайлова-1</t>
+  </si>
+  <si>
+    <t>Бирюкова-2</t>
+  </si>
+  <si>
+    <t>Загребельная-3</t>
+  </si>
+  <si>
+    <t>Кушнаренко-4</t>
+  </si>
+  <si>
+    <t>Калинина-5</t>
+  </si>
+  <si>
+    <t>6в</t>
+  </si>
+  <si>
+    <t>Кушнаренко-1</t>
+  </si>
+  <si>
+    <t>Синицкая-2</t>
+  </si>
+  <si>
+    <t>Селькин-3</t>
+  </si>
+  <si>
+    <t>Орлова-4</t>
+  </si>
+  <si>
+    <t>Степанян-5</t>
+  </si>
+  <si>
+    <t>6б</t>
+  </si>
+  <si>
+    <t>Калинина-1</t>
+  </si>
+  <si>
+    <t>Григорьева-2</t>
+  </si>
+  <si>
+    <t>Реппо-3</t>
+  </si>
+  <si>
+    <t>Григорьева-4</t>
+  </si>
+  <si>
+    <t>Полозова-5</t>
+  </si>
+  <si>
+    <t>Флоринская-1</t>
+  </si>
+  <si>
+    <t>Кузикова-2</t>
+  </si>
+  <si>
+    <t>Бирюкова-3</t>
+  </si>
+  <si>
+    <t>Флоринская-4</t>
+  </si>
+  <si>
+    <t>Грищенко-5</t>
+  </si>
+  <si>
+    <t>7в</t>
+  </si>
+  <si>
+    <t>Григорьева-1</t>
+  </si>
+  <si>
+    <t>Степанян-2</t>
+  </si>
+  <si>
+    <t>Чижкина-3</t>
+  </si>
+  <si>
+    <t>Грищенко-4</t>
+  </si>
+  <si>
+    <t>Чижкина-5</t>
+  </si>
+  <si>
+    <t>Степанян-6</t>
+  </si>
+  <si>
+    <t>Реппо-1</t>
+  </si>
+  <si>
+    <t>Чулкова-2</t>
+  </si>
+  <si>
+    <t>Синицкая-3</t>
+  </si>
+  <si>
+    <t>Реппо-4</t>
+  </si>
+  <si>
+    <t>Реппо-5</t>
+  </si>
+  <si>
+    <t>Чижкина-6</t>
+  </si>
+  <si>
+    <t>Орлова-1</t>
+  </si>
+  <si>
+    <t>Орлова-2</t>
+  </si>
+  <si>
+    <t>Кузьмина-3</t>
+  </si>
+  <si>
+    <t>Куликова-4</t>
+  </si>
+  <si>
+    <t>Загребельная-5</t>
+  </si>
+  <si>
+    <t>Михайлова-6</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>Волкова-1</t>
+  </si>
+  <si>
+    <t>Кузнецова-2</t>
+  </si>
+  <si>
+    <t>Кузнецова-3</t>
+  </si>
+  <si>
+    <t>Волкова-4</t>
+  </si>
+  <si>
+    <t>Михайлова-5</t>
+  </si>
+  <si>
+    <t>Григорьева-6</t>
+  </si>
+  <si>
+    <t>8в</t>
+  </si>
+  <si>
+    <t>Загребельная-1</t>
+  </si>
+  <si>
+    <t>Кузьмина-2</t>
+  </si>
+  <si>
+    <t>Дубова-3</t>
+  </si>
+  <si>
+    <t>Степанян-4</t>
+  </si>
+  <si>
+    <t>Кузнецова-5</t>
+  </si>
+  <si>
+    <t>Полозова-6</t>
+  </si>
+  <si>
+    <t>8б</t>
+  </si>
+  <si>
+    <t>Яковлева-1</t>
+  </si>
+  <si>
+    <t>Спиридович-2</t>
+  </si>
+  <si>
+    <t>Калинина-3</t>
+  </si>
+  <si>
+    <t>Автономова-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-5</t>
+  </si>
+  <si>
+    <t>Кузнецова-6</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>Автономова-1</t>
+  </si>
+  <si>
+    <t>Михайлова-2</t>
+  </si>
+  <si>
+    <t>Кушнаренко-3</t>
+  </si>
+  <si>
+    <t>Калинина-4</t>
+  </si>
+  <si>
+    <t>Платунова-5</t>
+  </si>
+  <si>
+    <t>Грищенко-6</t>
+  </si>
+  <si>
+    <t>Дубова-7</t>
+  </si>
+  <si>
+    <t>Кузикова-1</t>
+  </si>
+  <si>
+    <t>Полозова-2</t>
+  </si>
+  <si>
+    <t>Полозова-3</t>
+  </si>
+  <si>
+    <t>Кузнецова-4</t>
+  </si>
+  <si>
+    <t>Кузьмина-5</t>
+  </si>
+  <si>
+    <t>Синицкая-6</t>
+  </si>
+  <si>
+    <t>Орлова-7</t>
+  </si>
+  <si>
+    <t>Васильева-1</t>
+  </si>
+  <si>
+    <t>Платунова-2</t>
+  </si>
+  <si>
+    <t>Куликова-3</t>
+  </si>
+  <si>
+    <t>Чижкина-4</t>
+  </si>
+  <si>
+    <t>Спиридович-5</t>
+  </si>
+  <si>
+    <t>Спиридович-6</t>
+  </si>
+  <si>
+    <t>Волкова-7</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
+    <t>Георгиева-1</t>
+  </si>
+  <si>
+    <t>Яковлева-2</t>
+  </si>
+  <si>
+    <t>Васильева-3</t>
+  </si>
+  <si>
+    <t>Селькин-4</t>
+  </si>
+  <si>
+    <t>Волкова-5</t>
+  </si>
+  <si>
+    <t>Калинина-6</t>
+  </si>
+  <si>
+    <t>Михайлова-7</t>
+  </si>
+  <si>
+    <t>10б</t>
+  </si>
+  <si>
+    <t>Платунова-1</t>
+  </si>
+  <si>
+    <t>Волкова-2</t>
+  </si>
+  <si>
+    <t>Автономова-3</t>
+  </si>
+  <si>
+    <t>Кузьмина-4</t>
+  </si>
+  <si>
+    <t>Васильева-5</t>
+  </si>
+  <si>
+    <t>Васильева-6</t>
+  </si>
+  <si>
+    <t>Грищенко-7</t>
+  </si>
+  <si>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>Кузьмина-1</t>
+  </si>
+  <si>
+    <t>Васильева-2</t>
+  </si>
+  <si>
+    <t>Михайлова-3</t>
+  </si>
+  <si>
+    <t>Дубова-4</t>
+  </si>
+  <si>
+    <t>Дубова-5</t>
+  </si>
+  <si>
+    <t>Волкова-6</t>
+  </si>
+  <si>
+    <t>Георгиева-7</t>
+  </si>
+  <si>
+    <t>Синицкая-1</t>
+  </si>
+  <si>
+    <t>Флоринская-2</t>
+  </si>
+  <si>
+    <t>Кузикова-3</t>
+  </si>
+  <si>
+    <t>Васильева-4</t>
+  </si>
+  <si>
+    <t>Яковлева-5</t>
+  </si>
+  <si>
+    <t>Дубова-6</t>
+  </si>
+  <si>
+    <t>Бирюкова-7</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Кушнаренко-2</t>
+  </si>
+  <si>
+    <t>Степанян-3</t>
+  </si>
+  <si>
+    <t>Бирюкова-4</t>
+  </si>
+  <si>
     <t>5в</t>
   </si>
   <si>
-    <t>Загребельная-1</t>
-  </si>
-  <si>
-    <t>Яковлева-2</t>
-  </si>
-  <si>
-    <t>Калинина-3</t>
-  </si>
-  <si>
-    <t>Степанян-4</t>
-  </si>
-  <si>
-    <t>Калинина-5</t>
-  </si>
-  <si>
-    <t>5б</t>
-  </si>
-  <si>
-    <t>Флоринская-1</t>
-  </si>
-  <si>
-    <t>Орлова-2</t>
-  </si>
-  <si>
-    <t>Дубова-3</t>
-  </si>
-  <si>
-    <t>Куликова-4</t>
-  </si>
-  <si>
-    <t>Чижкина-5</t>
-  </si>
-  <si>
-    <t>5а</t>
-  </si>
-  <si>
-    <t>Георгиева-1</t>
-  </si>
-  <si>
-    <t>Синицкая-2</t>
-  </si>
-  <si>
-    <t>Кушнаренко-3</t>
+    <t>Спиридович-3</t>
+  </si>
+  <si>
+    <t>Синицкая-4</t>
+  </si>
+  <si>
+    <t>6а</t>
+  </si>
+  <si>
+    <t>Чулкова-1</t>
+  </si>
+  <si>
+    <t>Куликова-2</t>
+  </si>
+  <si>
+    <t>Грищенко-3</t>
+  </si>
+  <si>
+    <t>Флоринская-5</t>
+  </si>
+  <si>
+    <t>7б</t>
+  </si>
+  <si>
+    <t>Яковлева-6</t>
   </si>
   <si>
     <t>Михайлова-4</t>
   </si>
   <si>
-    <t>Бирюкова-5</t>
-  </si>
-  <si>
-    <t>6в</t>
-  </si>
-  <si>
-    <t>Григорьева-1</t>
-  </si>
-  <si>
-    <t>Реппо-2</t>
-  </si>
-  <si>
-    <t>Кузьмина-3</t>
-  </si>
-  <si>
-    <t>Грищенко-4</t>
-  </si>
-  <si>
-    <t>Волкова-5</t>
-  </si>
-  <si>
-    <t>6а</t>
-  </si>
-  <si>
-    <t>Васильева-1</t>
+    <t>Яковлева-4</t>
+  </si>
+  <si>
+    <t>Куликова-6</t>
+  </si>
+  <si>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>Платунова-4</t>
+  </si>
+  <si>
+    <t>Кушнаренко-5</t>
+  </si>
+  <si>
+    <t>Автономова-2</t>
+  </si>
+  <si>
+    <t>Григорьева-3</t>
+  </si>
+  <si>
+    <t>Степанян-7</t>
+  </si>
+  <si>
+    <t>9в</t>
+  </si>
+  <si>
+    <t>Дубова-2</t>
+  </si>
+  <si>
+    <t>Григорьева-5</t>
+  </si>
+  <si>
+    <t>Калинина-2</t>
+  </si>
+  <si>
+    <t>Кузьмина-6</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Кузнецова-1</t>
   </si>
   <si>
     <t>Грищенко-2</t>
   </si>
   <si>
-    <t>Куликова-3</t>
-  </si>
-  <si>
-    <t>Полозова-4</t>
-  </si>
-  <si>
-    <t>Кушнаренко-5</t>
-  </si>
-  <si>
-    <t>Автономова-1</t>
-  </si>
-  <si>
-    <t>Михайлова-2</t>
-  </si>
-  <si>
-    <t>Кузикова-3</t>
-  </si>
-  <si>
-    <t>Дубова-4</t>
-  </si>
-  <si>
-    <t>Степанян-5</t>
-  </si>
-  <si>
-    <t>7б</t>
+    <t>7а</t>
+  </si>
+  <si>
+    <t>Бирюкова-6</t>
+  </si>
+  <si>
+    <t>Загребельная-4</t>
+  </si>
+  <si>
+    <t>Загребельная-6</t>
+  </si>
+  <si>
+    <t>Кушнаренко-6</t>
+  </si>
+  <si>
+    <t>Чижкина-7</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Чулкова-3</t>
+  </si>
+  <si>
+    <t>Орлова-3</t>
+  </si>
+  <si>
+    <t>Загребельная-2</t>
   </si>
   <si>
     <t>Степанян-1</t>
   </si>
   <si>
-    <t>Кушнаренко-2</t>
-  </si>
-  <si>
-    <t>Михайлова-3</t>
-  </si>
-  <si>
-    <t>Селькин-4</t>
-  </si>
-  <si>
-    <t>Полозова-5</t>
-  </si>
-  <si>
-    <t>Степанян-6</t>
-  </si>
-  <si>
-    <t>Грищенко-1</t>
-  </si>
-  <si>
-    <t>Дубова-2</t>
-  </si>
-  <si>
-    <t>Синицкая-3</t>
-  </si>
-  <si>
-    <t>Синицкая-4</t>
-  </si>
-  <si>
-    <t>Васильева-5</t>
-  </si>
-  <si>
-    <t>Куликова-6</t>
-  </si>
-  <si>
-    <t>7а</t>
-  </si>
-  <si>
-    <t>Михайлова-1</t>
-  </si>
-  <si>
-    <t>Григорьева-2</t>
-  </si>
-  <si>
-    <t>Григорьева-3</t>
-  </si>
-  <si>
-    <t>Кузьмина-4</t>
-  </si>
-  <si>
-    <t>Григорьева-5</t>
-  </si>
-  <si>
-    <t>Орлова-6</t>
-  </si>
-  <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>Орлова-1</t>
-  </si>
-  <si>
-    <t>Куликова-2</t>
-  </si>
-  <si>
-    <t>Чулкова-3</t>
-  </si>
-  <si>
-    <t>Флоринская-4</t>
-  </si>
-  <si>
-    <t>Платунова-5</t>
-  </si>
-  <si>
-    <t>Дубова-6</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>Яковлева-1</t>
-  </si>
-  <si>
-    <t>Степанян-2</t>
-  </si>
-  <si>
-    <t>Васильева-3</t>
-  </si>
-  <si>
-    <t>Реппо-4</t>
-  </si>
-  <si>
-    <t>Орлова-5</t>
-  </si>
-  <si>
-    <t>Васильева-6</t>
-  </si>
-  <si>
-    <t>Кузнецова-1</t>
-  </si>
-  <si>
-    <t>Полозова-2</t>
-  </si>
-  <si>
-    <t>Степанян-3</t>
-  </si>
-  <si>
-    <t>Волкова-4</t>
-  </si>
-  <si>
-    <t>Куликова-5</t>
-  </si>
-  <si>
-    <t>Грищенко-6</t>
-  </si>
-  <si>
-    <t>9в</t>
-  </si>
-  <si>
-    <t>Чулкова-1</t>
-  </si>
-  <si>
-    <t>Кузикова-2</t>
-  </si>
-  <si>
-    <t>Грищенко-3</t>
-  </si>
-  <si>
-    <t>Спиридович-4</t>
-  </si>
-  <si>
-    <t>Реппо-5</t>
-  </si>
-  <si>
-    <t>Калинина-6</t>
-  </si>
-  <si>
-    <t>Грищенко-7</t>
-  </si>
-  <si>
-    <t>9а</t>
-  </si>
-  <si>
-    <t>Кузьмина-1</t>
-  </si>
-  <si>
-    <t>Платунова-2</t>
-  </si>
-  <si>
-    <t>Чижкина-3</t>
-  </si>
-  <si>
-    <t>Платунова-4</t>
-  </si>
-  <si>
-    <t>Грищенко-5</t>
-  </si>
-  <si>
-    <t>Бирюкова-6</t>
-  </si>
-  <si>
-    <t>Волкова-7</t>
-  </si>
-  <si>
-    <t>Реппо-1</t>
-  </si>
-  <si>
-    <t>Кузнецова-2</t>
-  </si>
-  <si>
-    <t>Реппо-3</t>
-  </si>
-  <si>
-    <t>Васильева-4</t>
-  </si>
-  <si>
-    <t>Михайлова-5</t>
-  </si>
-  <si>
-    <t>Волкова-6</t>
-  </si>
-  <si>
-    <t>Бирюкова-7</t>
-  </si>
-  <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>Калинина-1</t>
-  </si>
-  <si>
-    <t>Кузьмина-2</t>
-  </si>
-  <si>
-    <t>Волкова-3</t>
-  </si>
-  <si>
-    <t>Чижкина-4</t>
-  </si>
-  <si>
-    <t>Дубова-5</t>
-  </si>
-  <si>
-    <t>Михайлова-6</t>
-  </si>
-  <si>
-    <t>Георгиева-7</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>Синицкая-1</t>
-  </si>
-  <si>
-    <t>Калинина-2</t>
-  </si>
-  <si>
-    <t>Бирюкова-3</t>
-  </si>
-  <si>
-    <t>Автономова-4</t>
-  </si>
-  <si>
-    <t>Кузьмина-5</t>
-  </si>
-  <si>
-    <t>Синицкая-6</t>
-  </si>
-  <si>
-    <t>Степанян-7</t>
+    <t>Куликова-7</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
   <si>
     <t>11б</t>
-  </si>
-  <si>
-    <t>Платунова-1</t>
-  </si>
-  <si>
-    <t>Флоринская-2</t>
-  </si>
-  <si>
-    <t>Селькин-3</t>
-  </si>
-  <si>
-    <t>Калинина-4</t>
-  </si>
-  <si>
-    <t>Яковлева-5</t>
-  </si>
-  <si>
-    <t>Чижкина-6</t>
-  </si>
-  <si>
-    <t>Михайлова-7</t>
-  </si>
-  <si>
-    <t>Селькин-1</t>
-  </si>
-  <si>
-    <t>Спиридович-2</t>
-  </si>
-  <si>
-    <t>Спиридович-3</t>
-  </si>
-  <si>
-    <t>Яковлева-4</t>
-  </si>
-  <si>
-    <t>Спиридович-5</t>
-  </si>
-  <si>
-    <t>Яковлева-6</t>
-  </si>
-  <si>
-    <t>Чижкина-7</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Автономова-3</t>
-  </si>
-  <si>
-    <t>Кушнаренко-4</t>
-  </si>
-  <si>
-    <t>Загребельная-5</t>
-  </si>
-  <si>
-    <t>Волкова-1</t>
-  </si>
-  <si>
-    <t>Григорьева-4</t>
-  </si>
-  <si>
-    <t>6б</t>
-  </si>
-  <si>
-    <t>Васильева-2</t>
-  </si>
-  <si>
-    <t>Кушнаренко-1</t>
-  </si>
-  <si>
-    <t>Автономова-2</t>
-  </si>
-  <si>
-    <t>Бирюкова-4</t>
-  </si>
-  <si>
-    <t>Волкова-2</t>
-  </si>
-  <si>
-    <t>7в</t>
-  </si>
-  <si>
-    <t>Полозова-3</t>
-  </si>
-  <si>
-    <t>Кузнецова-4</t>
-  </si>
-  <si>
-    <t>Флоринская-5</t>
-  </si>
-  <si>
-    <t>Кушнаренко-6</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>Кузикова-1</t>
-  </si>
-  <si>
-    <t>Орлова-3</t>
-  </si>
-  <si>
-    <t>Платунова-3</t>
-  </si>
-  <si>
-    <t>Спиридович-6</t>
-  </si>
-  <si>
-    <t>Загребельная-3</t>
-  </si>
-  <si>
-    <t>Кузнецова-5</t>
-  </si>
-  <si>
-    <t>Кузнецова-6</t>
-  </si>
-  <si>
-    <t>Чулкова-2</t>
-  </si>
-  <si>
-    <t>Дубова-7</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Селькин-2</t>
-  </si>
-  <si>
-    <t>Орлова-4</t>
-  </si>
-  <si>
-    <t>Загребельная-6</t>
-  </si>
-  <si>
-    <t>Григорьева-6</t>
-  </si>
-  <si>
-    <t>Загребельная-4</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>Кушнаренко-7</t>
-  </si>
-  <si>
-    <t>Бирюкова-2</t>
-  </si>
-  <si>
-    <t>11а</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Загребельная-2</t>
-  </si>
-  <si>
-    <t>Кузьмина-6</t>
-  </si>
-  <si>
-    <t>Орлова-7</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Полозова-6</t>
-  </si>
-  <si>
-    <t>Кузнецова-3</t>
   </si>
 </sst>
 </file>
@@ -612,1760 +609,1760 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>72</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>74</v>
-      </c>
-      <c r="G13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>79</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>82</v>
-      </c>
-      <c r="H14" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>86</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>87</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>88</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>93</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>94</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>95</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
         <v>99</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>100</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>101</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>102</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>103</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
         <v>107</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>109</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>110</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>111</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
         <v>115</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>116</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>117</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>118</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>119</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>120</v>
-      </c>
-      <c r="G19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
         <v>123</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>124</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>125</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>126</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21"/>
     <row r="22">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
         <v>138</v>
       </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
         <v>142</v>
       </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" t="s">
-        <v>144</v>
-      </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
         <v>23</v>
       </c>
-      <c r="F32" t="s">
-        <v>96</v>
-      </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s">
         <v>127</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" t="s">
         <v>112</v>
-      </c>
-      <c r="G39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="H40" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="H41" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42"/>
     <row r="43">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
         <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G55" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" t="s">
         <v>65</v>
       </c>
-      <c r="D57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="H58" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
         <v>99</v>
       </c>
-      <c r="B59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" t="s">
-        <v>117</v>
-      </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G59" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H61" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" t="s">
         <v>80</v>
       </c>
-      <c r="F62" t="s">
-        <v>47</v>
-      </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63"/>
     <row r="64">
       <c r="A64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" t="s">
         <v>101</v>
       </c>
-      <c r="D66" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" t="s">
-        <v>80</v>
-      </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
         <v>123</v>
       </c>
-      <c r="C67" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" t="s">
         <v>86</v>
       </c>
-      <c r="D69" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" t="s">
-        <v>132</v>
-      </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
         <v>36</v>
       </c>
-      <c r="B72" t="s">
-        <v>37</v>
-      </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F73" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="G73" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
         <v>73</v>
       </c>
-      <c r="F75" t="s">
-        <v>112</v>
-      </c>
       <c r="G75" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G76" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>138</v>
-      </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="G77" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="H77" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F78" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="H78" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="G79" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="H79" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
         <v>99</v>
       </c>
-      <c r="B81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" t="s">
-        <v>15</v>
-      </c>
       <c r="D81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" t="s">
         <v>102</v>
       </c>
-      <c r="E81" t="s">
-        <v>119</v>
-      </c>
-      <c r="F81" t="s">
-        <v>145</v>
-      </c>
       <c r="G81" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="F82" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="H82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E83" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="G83" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="H83" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84"/>
@@ -2376,442 +2373,442 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" t="s">
         <v>29</v>
-      </c>
-      <c r="F86" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="D87" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="E88" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
         <v>19</v>
       </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="E91" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G92" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F93" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G93" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E94" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G94" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
         <v>77</v>
       </c>
-      <c r="C95" t="s">
-        <v>15</v>
-      </c>
       <c r="D95" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G95" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="G96" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="G97" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="D98" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E98" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="G98" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="H98" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="F99" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="G99" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H99" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>162</v>
+      </c>
+      <c r="H100" t="s">
         <v>104</v>
-      </c>
-      <c r="G100" t="s">
-        <v>48</v>
-      </c>
-      <c r="H100" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D101" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G101" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" t="s">
+        <v>142</v>
+      </c>
+      <c r="F102" t="s">
         <v>139</v>
       </c>
-      <c r="D102" t="s">
-        <v>66</v>
-      </c>
-      <c r="E102" t="s">
-        <v>53</v>
-      </c>
-      <c r="F102" t="s">
-        <v>61</v>
-      </c>
       <c r="G102" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="H102" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="H103" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E104" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F104" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H104" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105"/>

--- a/src/main/resources/xlsx/result.xlsx
+++ b/src/main/resources/xlsx/result.xlsx
@@ -13,525 +13,585 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="193">
   <si>
     <t>Monday</t>
   </si>
   <si>
+    <t>5а</t>
+  </si>
+  <si>
+    <t>Синицкая-5а</t>
+  </si>
+  <si>
+    <t>Кузикова-5а</t>
+  </si>
+  <si>
+    <t>Дубова-5а</t>
+  </si>
+  <si>
+    <t>Васильева-5а</t>
+  </si>
+  <si>
+    <t>Кузьмина-5а</t>
+  </si>
+  <si>
     <t>5б</t>
   </si>
   <si>
-    <t>Грищенко-1</t>
-  </si>
-  <si>
-    <t>Селькин-2</t>
-  </si>
-  <si>
-    <t>Платунова-3</t>
-  </si>
-  <si>
-    <t>Полозова-4</t>
-  </si>
-  <si>
-    <t>Орлова-5</t>
-  </si>
-  <si>
-    <t>Селькин-1</t>
-  </si>
-  <si>
-    <t>Реппо-2</t>
-  </si>
-  <si>
-    <t>Волкова-3</t>
-  </si>
-  <si>
-    <t>Спиридович-4</t>
-  </si>
-  <si>
-    <t>Куликова-5</t>
-  </si>
-  <si>
-    <t>5а</t>
-  </si>
-  <si>
-    <t>Михайлова-1</t>
-  </si>
-  <si>
-    <t>Бирюкова-2</t>
-  </si>
-  <si>
-    <t>Загребельная-3</t>
-  </si>
-  <si>
-    <t>Кушнаренко-4</t>
-  </si>
-  <si>
-    <t>Калинина-5</t>
+    <t>Грищенко-5б</t>
+  </si>
+  <si>
+    <t>Волкова-6а</t>
+  </si>
+  <si>
+    <t>Калинина-5б</t>
+  </si>
+  <si>
+    <t>Кузьмина-6а</t>
+  </si>
+  <si>
+    <t>Васильева-6а</t>
+  </si>
+  <si>
+    <t>5в</t>
+  </si>
+  <si>
+    <t>Чулкова-5в</t>
+  </si>
+  <si>
+    <t>Автономова-7а</t>
+  </si>
+  <si>
+    <t>Михайлова-7а</t>
+  </si>
+  <si>
+    <t>Куликова-5в</t>
+  </si>
+  <si>
+    <t>Бирюкова-6б</t>
+  </si>
+  <si>
+    <t>6а</t>
+  </si>
+  <si>
+    <t>Михайлова-6а</t>
+  </si>
+  <si>
+    <t>Яковлева-5б</t>
+  </si>
+  <si>
+    <t>Степанян-5б</t>
+  </si>
+  <si>
+    <t>Чижкина-5б</t>
+  </si>
+  <si>
+    <t>Флоринская-5б</t>
+  </si>
+  <si>
+    <t>7а</t>
+  </si>
+  <si>
+    <t>Кузьмина-7а</t>
+  </si>
+  <si>
+    <t>Васильева-7а</t>
+  </si>
+  <si>
+    <t>Полозова-5в</t>
+  </si>
+  <si>
+    <t>Яковлева-6б</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>Кузьмина-8а</t>
+  </si>
+  <si>
+    <t>Бирюкова-7б</t>
+  </si>
+  <si>
+    <t>Григорьева-6в</t>
+  </si>
+  <si>
+    <t>Загребельная-6в</t>
+  </si>
+  <si>
+    <t>Куликова-6в</t>
+  </si>
+  <si>
+    <t>Реппо-5в</t>
+  </si>
+  <si>
+    <t>Платунова-6б</t>
+  </si>
+  <si>
+    <t>Чижкина-6б</t>
+  </si>
+  <si>
+    <t>Селькин-6б</t>
+  </si>
+  <si>
+    <t>Кушнаренко-5в</t>
+  </si>
+  <si>
+    <t>7б</t>
+  </si>
+  <si>
+    <t>Степанян-7б</t>
+  </si>
+  <si>
+    <t>Чулкова-6в</t>
+  </si>
+  <si>
+    <t>Кузнецова-6в</t>
+  </si>
+  <si>
+    <t>Кушнаренко-6в</t>
+  </si>
+  <si>
+    <t>Дубова-8а</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>Кузикова-9а</t>
+  </si>
+  <si>
+    <t>Загребельная-7в</t>
+  </si>
+  <si>
+    <t>Автономова-9а</t>
+  </si>
+  <si>
+    <t>Орлова-7в</t>
+  </si>
+  <si>
+    <t>Степанян-8б</t>
+  </si>
+  <si>
+    <t>Куликова-7в</t>
   </si>
   <si>
     <t>6в</t>
   </si>
   <si>
-    <t>Кушнаренко-1</t>
-  </si>
-  <si>
-    <t>Синицкая-2</t>
-  </si>
-  <si>
-    <t>Селькин-3</t>
-  </si>
-  <si>
-    <t>Орлова-4</t>
-  </si>
-  <si>
-    <t>Степанян-5</t>
+    <t>Орлова-6в</t>
+  </si>
+  <si>
+    <t>Платунова-7б</t>
+  </si>
+  <si>
+    <t>Михайлова-8а</t>
+  </si>
+  <si>
+    <t>8б</t>
+  </si>
+  <si>
+    <t>Селькин-8б</t>
+  </si>
+  <si>
+    <t>Реппо-7в</t>
+  </si>
+  <si>
+    <t>Спиридович-9а</t>
+  </si>
+  <si>
+    <t>Волкова-9а</t>
+  </si>
+  <si>
+    <t>Чижкина-8б</t>
+  </si>
+  <si>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>Флоринская-9б</t>
+  </si>
+  <si>
+    <t>Кузнецова-8в</t>
+  </si>
+  <si>
+    <t>Полозова-8в</t>
+  </si>
+  <si>
+    <t>Яковлева-9б</t>
+  </si>
+  <si>
+    <t>Платунова-9б</t>
+  </si>
+  <si>
+    <t>7в</t>
+  </si>
+  <si>
+    <t>Григорьева-7в</t>
+  </si>
+  <si>
+    <t>Кушнаренко-7в</t>
+  </si>
+  <si>
+    <t>Платунова-8б</t>
+  </si>
+  <si>
+    <t>Кузьмина-9а</t>
+  </si>
+  <si>
+    <t>Георгиева-9а</t>
+  </si>
+  <si>
+    <t>8в</t>
+  </si>
+  <si>
+    <t>Загребельная-8в</t>
+  </si>
+  <si>
+    <t>Селькин-9б</t>
+  </si>
+  <si>
+    <t>Грищенко-9б</t>
+  </si>
+  <si>
+    <t>Орлова-8в</t>
+  </si>
+  <si>
+    <t>9в</t>
+  </si>
+  <si>
+    <t>Кушнаренко-9в</t>
+  </si>
+  <si>
+    <t>Григорьева-9в</t>
+  </si>
+  <si>
+    <t>Загребельная-9в</t>
+  </si>
+  <si>
+    <t>Реппо-9в</t>
+  </si>
+  <si>
+    <t>Орлова-9в</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
+    <t>Волкова-10а</t>
+  </si>
+  <si>
+    <t>Васильева-10а</t>
+  </si>
+  <si>
+    <t>Кузьмина-10а</t>
+  </si>
+  <si>
+    <t>Автономова-10а</t>
+  </si>
+  <si>
+    <t>Дубова-10а</t>
+  </si>
+  <si>
+    <t>Синицкая-10а</t>
+  </si>
+  <si>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>Георгиева-11а</t>
+  </si>
+  <si>
+    <t>Михайлова-11а</t>
+  </si>
+  <si>
+    <t>Спиридович-11а</t>
+  </si>
+  <si>
+    <t>Волкова-11а</t>
+  </si>
+  <si>
+    <t>Чижкина-10б</t>
+  </si>
+  <si>
+    <t>Калинина-10б</t>
+  </si>
+  <si>
+    <t>Степанян-10б</t>
+  </si>
+  <si>
+    <t>Васильева-11а</t>
+  </si>
+  <si>
+    <t>Бирюкова-10б</t>
+  </si>
+  <si>
+    <t>11б</t>
+  </si>
+  <si>
+    <t>Калинина-11б</t>
+  </si>
+  <si>
+    <t>Степанян-11б</t>
+  </si>
+  <si>
+    <t>Грищенко-11б</t>
+  </si>
+  <si>
+    <t>Бирюкова-11б</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Михайлова-5а</t>
+  </si>
+  <si>
+    <t>Спиридович-7а</t>
+  </si>
+  <si>
+    <t>Синицкая-7а</t>
+  </si>
+  <si>
+    <t>Грищенко-6б</t>
+  </si>
+  <si>
+    <t>Дубова-7а</t>
+  </si>
+  <si>
+    <t>Кузикова-7а</t>
+  </si>
+  <si>
+    <t>Волкова-7а</t>
+  </si>
+  <si>
+    <t>Грищенко-7б</t>
+  </si>
+  <si>
+    <t>Синицкая-8а</t>
+  </si>
+  <si>
+    <t>Чижкина-7б</t>
+  </si>
+  <si>
+    <t>Спиридович-8а</t>
   </si>
   <si>
     <t>6б</t>
   </si>
   <si>
-    <t>Калинина-1</t>
-  </si>
-  <si>
-    <t>Григорьева-2</t>
-  </si>
-  <si>
-    <t>Реппо-3</t>
-  </si>
-  <si>
-    <t>Григорьева-4</t>
-  </si>
-  <si>
-    <t>Полозова-5</t>
-  </si>
-  <si>
-    <t>Флоринская-1</t>
-  </si>
-  <si>
-    <t>Кузикова-2</t>
-  </si>
-  <si>
-    <t>Бирюкова-3</t>
-  </si>
-  <si>
-    <t>Флоринская-4</t>
-  </si>
-  <si>
-    <t>Грищенко-5</t>
-  </si>
-  <si>
-    <t>7в</t>
-  </si>
-  <si>
-    <t>Григорьева-1</t>
-  </si>
-  <si>
-    <t>Степанян-2</t>
-  </si>
-  <si>
-    <t>Чижкина-3</t>
-  </si>
-  <si>
-    <t>Грищенко-4</t>
-  </si>
-  <si>
-    <t>Чижкина-5</t>
-  </si>
-  <si>
-    <t>Степанян-6</t>
-  </si>
-  <si>
-    <t>Реппо-1</t>
-  </si>
-  <si>
-    <t>Чулкова-2</t>
-  </si>
-  <si>
-    <t>Синицкая-3</t>
-  </si>
-  <si>
-    <t>Реппо-4</t>
-  </si>
-  <si>
-    <t>Реппо-5</t>
-  </si>
-  <si>
-    <t>Чижкина-6</t>
-  </si>
-  <si>
-    <t>Орлова-1</t>
-  </si>
-  <si>
-    <t>Орлова-2</t>
-  </si>
-  <si>
-    <t>Кузьмина-3</t>
-  </si>
-  <si>
-    <t>Куликова-4</t>
-  </si>
-  <si>
-    <t>Загребельная-5</t>
-  </si>
-  <si>
-    <t>Михайлова-6</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>Волкова-1</t>
-  </si>
-  <si>
-    <t>Кузнецова-2</t>
-  </si>
-  <si>
-    <t>Кузнецова-3</t>
-  </si>
-  <si>
-    <t>Волкова-4</t>
-  </si>
-  <si>
-    <t>Михайлова-5</t>
-  </si>
-  <si>
-    <t>Григорьева-6</t>
-  </si>
-  <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>Загребельная-1</t>
-  </si>
-  <si>
-    <t>Кузьмина-2</t>
-  </si>
-  <si>
-    <t>Дубова-3</t>
-  </si>
-  <si>
-    <t>Степанян-4</t>
-  </si>
-  <si>
-    <t>Кузнецова-5</t>
-  </si>
-  <si>
-    <t>Полозова-6</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>Яковлева-1</t>
-  </si>
-  <si>
-    <t>Спиридович-2</t>
-  </si>
-  <si>
-    <t>Калинина-3</t>
-  </si>
-  <si>
-    <t>Автономова-4</t>
-  </si>
-  <si>
-    <t>Бирюкова-5</t>
-  </si>
-  <si>
-    <t>Кузнецова-6</t>
-  </si>
-  <si>
-    <t>9а</t>
-  </si>
-  <si>
-    <t>Автономова-1</t>
-  </si>
-  <si>
-    <t>Михайлова-2</t>
-  </si>
-  <si>
-    <t>Кушнаренко-3</t>
-  </si>
-  <si>
-    <t>Калинина-4</t>
-  </si>
-  <si>
-    <t>Платунова-5</t>
-  </si>
-  <si>
-    <t>Грищенко-6</t>
-  </si>
-  <si>
-    <t>Дубова-7</t>
-  </si>
-  <si>
-    <t>Кузикова-1</t>
-  </si>
-  <si>
-    <t>Полозова-2</t>
-  </si>
-  <si>
-    <t>Полозова-3</t>
-  </si>
-  <si>
-    <t>Кузнецова-4</t>
-  </si>
-  <si>
-    <t>Кузьмина-5</t>
-  </si>
-  <si>
-    <t>Синицкая-6</t>
-  </si>
-  <si>
-    <t>Орлова-7</t>
-  </si>
-  <si>
-    <t>Васильева-1</t>
-  </si>
-  <si>
-    <t>Платунова-2</t>
-  </si>
-  <si>
-    <t>Куликова-3</t>
-  </si>
-  <si>
-    <t>Чижкина-4</t>
-  </si>
-  <si>
-    <t>Спиридович-5</t>
-  </si>
-  <si>
-    <t>Спиридович-6</t>
-  </si>
-  <si>
-    <t>Волкова-7</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>Георгиева-1</t>
-  </si>
-  <si>
-    <t>Яковлева-2</t>
-  </si>
-  <si>
-    <t>Васильева-3</t>
-  </si>
-  <si>
-    <t>Селькин-4</t>
-  </si>
-  <si>
-    <t>Волкова-5</t>
-  </si>
-  <si>
-    <t>Калинина-6</t>
-  </si>
-  <si>
-    <t>Михайлова-7</t>
+    <t>Георгиева-8а</t>
+  </si>
+  <si>
+    <t>Флоринская-8б</t>
+  </si>
+  <si>
+    <t>Селькин-7б</t>
+  </si>
+  <si>
+    <t>Реппо-6в</t>
+  </si>
+  <si>
+    <t>Флоринская-7б</t>
+  </si>
+  <si>
+    <t>Кузнецова-7в</t>
+  </si>
+  <si>
+    <t>Калинина-8б</t>
+  </si>
+  <si>
+    <t>Грищенко-8б</t>
+  </si>
+  <si>
+    <t>Кушнаренко-8в</t>
+  </si>
+  <si>
+    <t>Куликова-8в</t>
+  </si>
+  <si>
+    <t>Яковлева-8б</t>
+  </si>
+  <si>
+    <t>Михайлова-9а</t>
+  </si>
+  <si>
+    <t>Реппо-8в</t>
+  </si>
+  <si>
+    <t>Бирюкова-9б</t>
+  </si>
+  <si>
+    <t>Полозова-9в</t>
+  </si>
+  <si>
+    <t>Кузнецова-9в</t>
+  </si>
+  <si>
+    <t>Кузикова-10а</t>
+  </si>
+  <si>
+    <t>Михайлова-10а</t>
   </si>
   <si>
     <t>10б</t>
   </si>
   <si>
-    <t>Платунова-1</t>
-  </si>
-  <si>
-    <t>Волкова-2</t>
-  </si>
-  <si>
-    <t>Автономова-3</t>
-  </si>
-  <si>
-    <t>Кузьмина-4</t>
-  </si>
-  <si>
-    <t>Васильева-5</t>
-  </si>
-  <si>
-    <t>Васильева-6</t>
-  </si>
-  <si>
-    <t>Грищенко-7</t>
-  </si>
-  <si>
-    <t>11а</t>
-  </si>
-  <si>
-    <t>Кузьмина-1</t>
-  </si>
-  <si>
-    <t>Васильева-2</t>
-  </si>
-  <si>
-    <t>Михайлова-3</t>
-  </si>
-  <si>
-    <t>Дубова-4</t>
-  </si>
-  <si>
-    <t>Дубова-5</t>
-  </si>
-  <si>
-    <t>Волкова-6</t>
-  </si>
-  <si>
-    <t>Георгиева-7</t>
-  </si>
-  <si>
-    <t>Синицкая-1</t>
-  </si>
-  <si>
-    <t>Флоринская-2</t>
-  </si>
-  <si>
-    <t>Кузикова-3</t>
-  </si>
-  <si>
-    <t>Васильева-4</t>
-  </si>
-  <si>
-    <t>Яковлева-5</t>
-  </si>
-  <si>
-    <t>Дубова-6</t>
-  </si>
-  <si>
-    <t>Бирюкова-7</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Кушнаренко-2</t>
-  </si>
-  <si>
-    <t>Степанян-3</t>
-  </si>
-  <si>
-    <t>Бирюкова-4</t>
-  </si>
-  <si>
-    <t>5в</t>
-  </si>
-  <si>
-    <t>Спиридович-3</t>
-  </si>
-  <si>
-    <t>Синицкая-4</t>
-  </si>
-  <si>
-    <t>6а</t>
-  </si>
-  <si>
-    <t>Чулкова-1</t>
-  </si>
-  <si>
-    <t>Куликова-2</t>
-  </si>
-  <si>
-    <t>Грищенко-3</t>
-  </si>
-  <si>
-    <t>Флоринская-5</t>
-  </si>
-  <si>
-    <t>7б</t>
-  </si>
-  <si>
-    <t>Яковлева-6</t>
-  </si>
-  <si>
-    <t>Михайлова-4</t>
-  </si>
-  <si>
-    <t>Яковлева-4</t>
-  </si>
-  <si>
-    <t>Куликова-6</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>Платунова-4</t>
-  </si>
-  <si>
-    <t>Кушнаренко-5</t>
-  </si>
-  <si>
-    <t>Автономова-2</t>
-  </si>
-  <si>
-    <t>Григорьева-3</t>
-  </si>
-  <si>
-    <t>Степанян-7</t>
-  </si>
-  <si>
-    <t>9в</t>
-  </si>
-  <si>
-    <t>Дубова-2</t>
-  </si>
-  <si>
-    <t>Григорьева-5</t>
-  </si>
-  <si>
-    <t>Калинина-2</t>
-  </si>
-  <si>
-    <t>Кузьмина-6</t>
+    <t>Дубова-11а</t>
+  </si>
+  <si>
+    <t>Грищенко-10б</t>
+  </si>
+  <si>
+    <t>Синицкая-11а</t>
+  </si>
+  <si>
+    <t>Яковлева-10б</t>
+  </si>
+  <si>
+    <t>Селькин-10б</t>
+  </si>
+  <si>
+    <t>Автономова-11а</t>
+  </si>
+  <si>
+    <t>Селькин-11б</t>
+  </si>
+  <si>
+    <t>Чижкина-11б</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>Кузнецова-1</t>
-  </si>
-  <si>
-    <t>Грищенко-2</t>
-  </si>
-  <si>
-    <t>7а</t>
-  </si>
-  <si>
-    <t>Бирюкова-6</t>
-  </si>
-  <si>
-    <t>Загребельная-4</t>
-  </si>
-  <si>
-    <t>Загребельная-6</t>
-  </si>
-  <si>
-    <t>Кушнаренко-6</t>
-  </si>
-  <si>
-    <t>Чижкина-7</t>
+    <t>Спиридович-5а</t>
+  </si>
+  <si>
+    <t>Волкова-5а</t>
+  </si>
+  <si>
+    <t>Дубова-6а</t>
+  </si>
+  <si>
+    <t>Селькин-5б</t>
+  </si>
+  <si>
+    <t>Григорьева-5в</t>
+  </si>
+  <si>
+    <t>Флоринская-6б</t>
+  </si>
+  <si>
+    <t>Орлова-5в</t>
+  </si>
+  <si>
+    <t>Автономова-6а</t>
+  </si>
+  <si>
+    <t>Платунова-5б</t>
+  </si>
+  <si>
+    <t>Кузнецова-5в</t>
+  </si>
+  <si>
+    <t>Полозова-6в</t>
+  </si>
+  <si>
+    <t>Яковлева-7б</t>
+  </si>
+  <si>
+    <t>Васильева-8а</t>
+  </si>
+  <si>
+    <t>Калинина-7б</t>
+  </si>
+  <si>
+    <t>Чулкова-7в</t>
+  </si>
+  <si>
+    <t>Калинина-9б</t>
+  </si>
+  <si>
+    <t>Синицкая-9а</t>
+  </si>
+  <si>
+    <t>Дубова-9а</t>
+  </si>
+  <si>
+    <t>Григорьева-8в</t>
+  </si>
+  <si>
+    <t>Спиридович-10а</t>
+  </si>
+  <si>
+    <t>Кузьмина-11а</t>
+  </si>
+  <si>
+    <t>Платунова-11б</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>Чулкова-3</t>
-  </si>
-  <si>
-    <t>Орлова-3</t>
-  </si>
-  <si>
-    <t>Загребельная-2</t>
-  </si>
-  <si>
-    <t>Степанян-1</t>
-  </si>
-  <si>
-    <t>Куликова-7</t>
+    <t>Степанян-6б</t>
+  </si>
+  <si>
+    <t>Калинина-6б</t>
+  </si>
+  <si>
+    <t>Васильева-9а</t>
+  </si>
+  <si>
+    <t>Полозова-7в</t>
+  </si>
+  <si>
+    <t>Чулкова-8в</t>
+  </si>
+  <si>
+    <t>Чижкина-9б</t>
+  </si>
+  <si>
+    <t>Куликова-9в</t>
+  </si>
+  <si>
+    <t>Флоринская-10б</t>
+  </si>
+  <si>
+    <t>Платунова-10б</t>
+  </si>
+  <si>
+    <t>Флоринская-11б</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>11б</t>
+    <t>Георгиева-6а</t>
+  </si>
+  <si>
+    <t>Автономова-8а</t>
+  </si>
+  <si>
+    <t>Кузикова-8а</t>
+  </si>
+  <si>
+    <t>Волкова-8а</t>
+  </si>
+  <si>
+    <t>Бирюкова-8б</t>
+  </si>
+  <si>
+    <t>Степанян-9б</t>
+  </si>
+  <si>
+    <t>Георгиева-10а</t>
+  </si>
+  <si>
+    <t>Кузикова-11а</t>
+  </si>
+  <si>
+    <t>Яковлева-11б</t>
   </si>
 </sst>
 </file>
@@ -609,70 +669,70 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -689,27 +749,27 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
@@ -724,15 +784,15 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -744,18 +804,18 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -781,256 +841,256 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
         <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="H20" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21"/>
     <row r="22">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -1038,908 +1098,908 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H36" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" t="s">
         <v>86</v>
-      </c>
-      <c r="F37" t="s">
-        <v>153</v>
-      </c>
-      <c r="G37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
         <v>101</v>
       </c>
-      <c r="F39" t="s">
-        <v>94</v>
-      </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H39" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="H40" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G41" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H41" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42"/>
     <row r="43">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" t="s">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
-        <v>85</v>
-      </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
         <v>18</v>
       </c>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" t="s">
-        <v>158</v>
-      </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
         <v>35</v>
       </c>
-      <c r="B51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" t="s">
-        <v>130</v>
-      </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
         <v>68</v>
       </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="G55" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H56" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="H57" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F60" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="H60" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="G61" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="H61" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G62" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="H62" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63"/>
     <row r="64">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F65" t="s">
         <v>110</v>
@@ -1947,214 +2007,214 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="G71" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="G72" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E73" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="G73" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="G74" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="G75" t="s">
         <v>53</v>
@@ -2162,402 +2222,402 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D76" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="E77" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="G77" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E78" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="H78" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F79" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G79" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="H79" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E81" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F81" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G81" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H81" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="s">
         <v>98</v>
       </c>
-      <c r="C82" t="s">
-        <v>148</v>
-      </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E82" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="F82" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="G82" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="H82" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F83" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H83" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84"/>
     <row r="85">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F91" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s">
         <v>159</v>
-      </c>
-      <c r="B92" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" t="s">
-        <v>148</v>
-      </c>
-      <c r="D92" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" t="s">
-        <v>124</v>
-      </c>
-      <c r="F92" t="s">
-        <v>52</v>
-      </c>
-      <c r="G92" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E93" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="F93" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F94" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95">
@@ -2565,250 +2625,250 @@
         <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F95" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="G96" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D97" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F97" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G97" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G98" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="H98" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="G99" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="G100" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="H100" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="D101" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E101" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="H101" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="D102" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="E102" t="s">
+        <v>180</v>
+      </c>
+      <c r="F102" t="s">
+        <v>181</v>
+      </c>
+      <c r="G102" t="s">
+        <v>101</v>
+      </c>
+      <c r="H102" t="s">
         <v>142</v>
-      </c>
-      <c r="F102" t="s">
-        <v>139</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
-      <c r="H102" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="E103" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="D104" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="G104" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="H104" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105"/>

--- a/src/main/resources/xlsx/result.xlsx
+++ b/src/main/resources/xlsx/result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="194">
   <si>
     <t>Monday</t>
   </si>
@@ -21,577 +21,580 @@
     <t>5а</t>
   </si>
   <si>
+    <t>Кузикова-5а</t>
+  </si>
+  <si>
+    <t>Волкова-5а</t>
+  </si>
+  <si>
+    <t>Михайлова-5а</t>
+  </si>
+  <si>
+    <t>Спиридович-5а</t>
+  </si>
+  <si>
+    <t>Васильева-5а</t>
+  </si>
+  <si>
+    <t>6а</t>
+  </si>
+  <si>
+    <t>Автономова-6а</t>
+  </si>
+  <si>
+    <t>Кузикова-6а</t>
+  </si>
+  <si>
+    <t>Чижкина-5б</t>
+  </si>
+  <si>
+    <t>Яковлева-5б</t>
+  </si>
+  <si>
+    <t>5в</t>
+  </si>
+  <si>
+    <t>Кушнаренко-5в</t>
+  </si>
+  <si>
+    <t>Бирюкова-6б</t>
+  </si>
+  <si>
+    <t>Загребельная-5в</t>
+  </si>
+  <si>
+    <t>Чижкина-6б</t>
+  </si>
+  <si>
+    <t>5б</t>
+  </si>
+  <si>
+    <t>Калинина-5б</t>
+  </si>
+  <si>
+    <t>Селькин-5б</t>
+  </si>
+  <si>
+    <t>Грищенко-5б</t>
+  </si>
+  <si>
+    <t>Флоринская-5б</t>
+  </si>
+  <si>
+    <t>Степанян-5б</t>
+  </si>
+  <si>
+    <t>Реппо-5в</t>
+  </si>
+  <si>
+    <t>Платунова-6б</t>
+  </si>
+  <si>
+    <t>Полозова-5в</t>
+  </si>
+  <si>
+    <t>Михайлова-7а</t>
+  </si>
+  <si>
+    <t>7б</t>
+  </si>
+  <si>
+    <t>Степанян-7б</t>
+  </si>
+  <si>
+    <t>Реппо-6в</t>
+  </si>
+  <si>
+    <t>Чулкова-6в</t>
+  </si>
+  <si>
+    <t>Полозова-6в</t>
+  </si>
+  <si>
+    <t>7а</t>
+  </si>
+  <si>
+    <t>Синицкая-7а</t>
+  </si>
+  <si>
+    <t>Григорьева-5в</t>
+  </si>
+  <si>
+    <t>Кузьмина-7а</t>
+  </si>
+  <si>
+    <t>Степанян-6б</t>
+  </si>
+  <si>
+    <t>6в</t>
+  </si>
+  <si>
+    <t>Загребельная-6в</t>
+  </si>
+  <si>
+    <t>Автономова-8а</t>
+  </si>
+  <si>
+    <t>Куликова-6в</t>
+  </si>
+  <si>
+    <t>Бирюкова-7б</t>
+  </si>
+  <si>
+    <t>Дубова-8а</t>
+  </si>
+  <si>
+    <t>8б</t>
+  </si>
+  <si>
+    <t>Яковлева-8б</t>
+  </si>
+  <si>
+    <t>Грищенко-8б</t>
+  </si>
+  <si>
+    <t>Чижкина-8б</t>
+  </si>
+  <si>
+    <t>Селькин-8б</t>
+  </si>
+  <si>
+    <t>Платунова-8б</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>Волкова-8а</t>
+  </si>
+  <si>
+    <t>Кушнаренко-6в</t>
+  </si>
+  <si>
+    <t>Флоринская-8б</t>
+  </si>
+  <si>
+    <t>Орлова-7в</t>
+  </si>
+  <si>
+    <t>Волкова-9а</t>
+  </si>
+  <si>
+    <t>Кузьмина-9а</t>
+  </si>
+  <si>
+    <t>Полозова-7в</t>
+  </si>
+  <si>
+    <t>8в</t>
+  </si>
+  <si>
+    <t>Орлова-8в</t>
+  </si>
+  <si>
+    <t>Кузнецова-8в</t>
+  </si>
+  <si>
+    <t>Куликова-8в</t>
+  </si>
+  <si>
+    <t>Бирюкова-9б</t>
+  </si>
+  <si>
+    <t>Чижкина-9б</t>
+  </si>
+  <si>
+    <t>7в</t>
+  </si>
+  <si>
+    <t>Чулкова-7в</t>
+  </si>
+  <si>
+    <t>Дубова-9а</t>
+  </si>
+  <si>
+    <t>Калинина-8б</t>
+  </si>
+  <si>
+    <t>Бирюкова-8б</t>
+  </si>
+  <si>
+    <t>Михайлова-9а</t>
+  </si>
+  <si>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>Платунова-9б</t>
+  </si>
+  <si>
+    <t>Калинина-9б</t>
+  </si>
+  <si>
+    <t>Реппо-8в</t>
+  </si>
+  <si>
+    <t>Степанян-9б</t>
+  </si>
+  <si>
+    <t>9в</t>
+  </si>
+  <si>
+    <t>Кузнецова-9в</t>
+  </si>
+  <si>
+    <t>Куликова-9в</t>
+  </si>
+  <si>
+    <t>Григорьева-9в</t>
+  </si>
+  <si>
+    <t>Орлова-9в</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
+    <t>Кузьмина-10а</t>
+  </si>
+  <si>
+    <t>Кузикова-10а</t>
+  </si>
+  <si>
+    <t>Михайлова-10а</t>
+  </si>
+  <si>
+    <t>Спиридович-10а</t>
+  </si>
+  <si>
+    <t>Синицкая-10а</t>
+  </si>
+  <si>
+    <t>Волкова-10а</t>
+  </si>
+  <si>
+    <t>10б</t>
+  </si>
+  <si>
+    <t>Селькин-10б</t>
+  </si>
+  <si>
+    <t>Синицкая-11а</t>
+  </si>
+  <si>
+    <t>Дубова-11а</t>
+  </si>
+  <si>
+    <t>Васильева-11а</t>
+  </si>
+  <si>
+    <t>Грищенко-10б</t>
+  </si>
+  <si>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>Георгиева-11а</t>
+  </si>
+  <si>
+    <t>Яковлева-10б</t>
+  </si>
+  <si>
+    <t>Спиридович-11а</t>
+  </si>
+  <si>
+    <t>Платунова-10б</t>
+  </si>
+  <si>
+    <t>Кузьмина-11а</t>
+  </si>
+  <si>
+    <t>Калинина-10б</t>
+  </si>
+  <si>
+    <t>Бирюкова-10б</t>
+  </si>
+  <si>
+    <t>11б</t>
+  </si>
+  <si>
+    <t>Грищенко-11б</t>
+  </si>
+  <si>
+    <t>Бирюкова-11б</t>
+  </si>
+  <si>
+    <t>Селькин-11б</t>
+  </si>
+  <si>
+    <t>Яковлева-11б</t>
+  </si>
+  <si>
+    <t>Флоринская-11б</t>
+  </si>
+  <si>
+    <t>Степанян-11б</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Автономова-5а</t>
+  </si>
+  <si>
     <t>Синицкая-5а</t>
   </si>
   <si>
-    <t>Кузикова-5а</t>
-  </si>
-  <si>
     <t>Дубова-5а</t>
   </si>
   <si>
-    <t>Васильева-5а</t>
+    <t>Дубова-6а</t>
+  </si>
+  <si>
+    <t>Волкова-6а</t>
+  </si>
+  <si>
+    <t>6б</t>
+  </si>
+  <si>
+    <t>Автономова-7а</t>
+  </si>
+  <si>
+    <t>Михайлова-6а</t>
+  </si>
+  <si>
+    <t>Васильева-6а</t>
+  </si>
+  <si>
+    <t>Кузьмина-6а</t>
+  </si>
+  <si>
+    <t>Георгиева-7а</t>
+  </si>
+  <si>
+    <t>Спиридович-7а</t>
+  </si>
+  <si>
+    <t>Кузнецова-6в</t>
+  </si>
+  <si>
+    <t>Селькин-7б</t>
+  </si>
+  <si>
+    <t>Яковлева-7б</t>
+  </si>
+  <si>
+    <t>Яковлева-6б</t>
+  </si>
+  <si>
+    <t>Орлова-5в</t>
+  </si>
+  <si>
+    <t>Кузикова-7а</t>
+  </si>
+  <si>
+    <t>Григорьева-6в</t>
+  </si>
+  <si>
+    <t>Флоринская-7б</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>Реппо-7в</t>
+  </si>
+  <si>
+    <t>Григорьева-7в</t>
+  </si>
+  <si>
+    <t>Калинина-7б</t>
+  </si>
+  <si>
+    <t>Грищенко-7б</t>
+  </si>
+  <si>
+    <t>Спиридович-8а</t>
+  </si>
+  <si>
+    <t>Кушнаренко-7в</t>
+  </si>
+  <si>
+    <t>Степанян-8б</t>
+  </si>
+  <si>
+    <t>Григорьева-8в</t>
+  </si>
+  <si>
+    <t>Кушнаренко-8в</t>
+  </si>
+  <si>
+    <t>Синицкая-9а</t>
+  </si>
+  <si>
+    <t>Спиридович-9а</t>
+  </si>
+  <si>
+    <t>Загребельная-7в</t>
+  </si>
+  <si>
+    <t>Селькин-9б</t>
+  </si>
+  <si>
+    <t>Чулкова-8в</t>
+  </si>
+  <si>
+    <t>Флоринская-9б</t>
+  </si>
+  <si>
+    <t>Полозова-8в</t>
+  </si>
+  <si>
+    <t>Грищенко-9б</t>
+  </si>
+  <si>
+    <t>Кушнаренко-9в</t>
+  </si>
+  <si>
+    <t>Васильева-10а</t>
+  </si>
+  <si>
+    <t>Георгиева-10а</t>
+  </si>
+  <si>
+    <t>Чижкина-10б</t>
+  </si>
+  <si>
+    <t>Волкова-11а</t>
+  </si>
+  <si>
+    <t>Кузикова-11а</t>
+  </si>
+  <si>
+    <t>Михайлова-11а</t>
+  </si>
+  <si>
+    <t>Калинина-11б</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Георгиева-6а</t>
+  </si>
+  <si>
+    <t>Платунова-5б</t>
+  </si>
+  <si>
+    <t>Синицкая-6а</t>
+  </si>
+  <si>
+    <t>Бирюкова-5б</t>
+  </si>
+  <si>
+    <t>Дубова-7а</t>
+  </si>
+  <si>
+    <t>Селькин-6б</t>
+  </si>
+  <si>
+    <t>Кузнецова-5в</t>
+  </si>
+  <si>
+    <t>Васильева-7а</t>
+  </si>
+  <si>
+    <t>Грищенко-6б</t>
+  </si>
+  <si>
+    <t>Орлова-6в</t>
+  </si>
+  <si>
+    <t>Кузнецова-7в</t>
+  </si>
+  <si>
+    <t>Куликова-7в</t>
+  </si>
+  <si>
+    <t>Загребельная-8в</t>
+  </si>
+  <si>
+    <t>Реппо-9в</t>
+  </si>
+  <si>
+    <t>Степанян-10б</t>
+  </si>
+  <si>
+    <t>Автономова-11а</t>
+  </si>
+  <si>
+    <t>Чижкина-11б</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
   <si>
     <t>Кузьмина-5а</t>
   </si>
   <si>
-    <t>5б</t>
-  </si>
-  <si>
-    <t>Грищенко-5б</t>
-  </si>
-  <si>
-    <t>Волкова-6а</t>
-  </si>
-  <si>
-    <t>Калинина-5б</t>
-  </si>
-  <si>
-    <t>Кузьмина-6а</t>
-  </si>
-  <si>
-    <t>Васильева-6а</t>
-  </si>
-  <si>
-    <t>5в</t>
+    <t>Куликова-5в</t>
+  </si>
+  <si>
+    <t>Платунова-7б</t>
+  </si>
+  <si>
+    <t>Волкова-7а</t>
+  </si>
+  <si>
+    <t>Синицкая-8а</t>
+  </si>
+  <si>
+    <t>Георгиева-9а</t>
+  </si>
+  <si>
+    <t>Чижкина-7б</t>
+  </si>
+  <si>
+    <t>Кузикова-9а</t>
+  </si>
+  <si>
+    <t>Яковлева-9б</t>
+  </si>
+  <si>
+    <t>Чулкова-9в</t>
+  </si>
+  <si>
+    <t>Автономова-10а</t>
+  </si>
+  <si>
+    <t>Флоринская-10б</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Флоринская-6б</t>
+  </si>
+  <si>
+    <t>Кузикова-8а</t>
   </si>
   <si>
     <t>Чулкова-5в</t>
   </si>
   <si>
-    <t>Автономова-7а</t>
-  </si>
-  <si>
-    <t>Михайлова-7а</t>
-  </si>
-  <si>
-    <t>Куликова-5в</t>
-  </si>
-  <si>
-    <t>Бирюкова-6б</t>
-  </si>
-  <si>
-    <t>6а</t>
-  </si>
-  <si>
-    <t>Михайлова-6а</t>
-  </si>
-  <si>
-    <t>Яковлева-5б</t>
-  </si>
-  <si>
-    <t>Степанян-5б</t>
-  </si>
-  <si>
-    <t>Чижкина-5б</t>
-  </si>
-  <si>
-    <t>Флоринская-5б</t>
-  </si>
-  <si>
-    <t>7а</t>
-  </si>
-  <si>
-    <t>Кузьмина-7а</t>
-  </si>
-  <si>
-    <t>Васильева-7а</t>
-  </si>
-  <si>
-    <t>Полозова-5в</t>
-  </si>
-  <si>
-    <t>Яковлева-6б</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>Кузьмина-8а</t>
-  </si>
-  <si>
-    <t>Бирюкова-7б</t>
-  </si>
-  <si>
-    <t>Григорьева-6в</t>
-  </si>
-  <si>
-    <t>Загребельная-6в</t>
-  </si>
-  <si>
-    <t>Куликова-6в</t>
-  </si>
-  <si>
-    <t>Реппо-5в</t>
-  </si>
-  <si>
-    <t>Платунова-6б</t>
-  </si>
-  <si>
-    <t>Чижкина-6б</t>
-  </si>
-  <si>
-    <t>Селькин-6б</t>
-  </si>
-  <si>
-    <t>Кушнаренко-5в</t>
-  </si>
-  <si>
-    <t>7б</t>
-  </si>
-  <si>
-    <t>Степанян-7б</t>
-  </si>
-  <si>
-    <t>Чулкова-6в</t>
-  </si>
-  <si>
-    <t>Кузнецова-6в</t>
-  </si>
-  <si>
-    <t>Кушнаренко-6в</t>
-  </si>
-  <si>
-    <t>Дубова-8а</t>
-  </si>
-  <si>
-    <t>9а</t>
-  </si>
-  <si>
-    <t>Кузикова-9а</t>
-  </si>
-  <si>
-    <t>Загребельная-7в</t>
+    <t>Георгиева-8а</t>
+  </si>
+  <si>
+    <t>Михайлова-8а</t>
+  </si>
+  <si>
+    <t>Васильева-9а</t>
   </si>
   <si>
     <t>Автономова-9а</t>
   </si>
   <si>
-    <t>Орлова-7в</t>
-  </si>
-  <si>
-    <t>Степанян-8б</t>
-  </si>
-  <si>
-    <t>Куликова-7в</t>
-  </si>
-  <si>
-    <t>6в</t>
-  </si>
-  <si>
-    <t>Орлова-6в</t>
-  </si>
-  <si>
-    <t>Платунова-7б</t>
-  </si>
-  <si>
-    <t>Михайлова-8а</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>Селькин-8б</t>
-  </si>
-  <si>
-    <t>Реппо-7в</t>
-  </si>
-  <si>
-    <t>Спиридович-9а</t>
-  </si>
-  <si>
-    <t>Волкова-9а</t>
-  </si>
-  <si>
-    <t>Чижкина-8б</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>Флоринская-9б</t>
-  </si>
-  <si>
-    <t>Кузнецова-8в</t>
-  </si>
-  <si>
-    <t>Полозова-8в</t>
-  </si>
-  <si>
-    <t>Яковлева-9б</t>
-  </si>
-  <si>
-    <t>Платунова-9б</t>
-  </si>
-  <si>
-    <t>7в</t>
-  </si>
-  <si>
-    <t>Григорьева-7в</t>
-  </si>
-  <si>
-    <t>Кушнаренко-7в</t>
-  </si>
-  <si>
-    <t>Платунова-8б</t>
-  </si>
-  <si>
-    <t>Кузьмина-9а</t>
-  </si>
-  <si>
-    <t>Георгиева-9а</t>
-  </si>
-  <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>Загребельная-8в</t>
-  </si>
-  <si>
-    <t>Селькин-9б</t>
-  </si>
-  <si>
-    <t>Грищенко-9б</t>
-  </si>
-  <si>
-    <t>Орлова-8в</t>
-  </si>
-  <si>
-    <t>9в</t>
-  </si>
-  <si>
-    <t>Кушнаренко-9в</t>
-  </si>
-  <si>
-    <t>Григорьева-9в</t>
-  </si>
-  <si>
-    <t>Загребельная-9в</t>
-  </si>
-  <si>
-    <t>Реппо-9в</t>
-  </si>
-  <si>
-    <t>Орлова-9в</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>Волкова-10а</t>
-  </si>
-  <si>
-    <t>Васильева-10а</t>
-  </si>
-  <si>
-    <t>Кузьмина-10а</t>
-  </si>
-  <si>
-    <t>Автономова-10а</t>
-  </si>
-  <si>
     <t>Дубова-10а</t>
-  </si>
-  <si>
-    <t>Синицкая-10а</t>
-  </si>
-  <si>
-    <t>11а</t>
-  </si>
-  <si>
-    <t>Георгиева-11а</t>
-  </si>
-  <si>
-    <t>Михайлова-11а</t>
-  </si>
-  <si>
-    <t>Спиридович-11а</t>
-  </si>
-  <si>
-    <t>Волкова-11а</t>
-  </si>
-  <si>
-    <t>Чижкина-10б</t>
-  </si>
-  <si>
-    <t>Калинина-10б</t>
-  </si>
-  <si>
-    <t>Степанян-10б</t>
-  </si>
-  <si>
-    <t>Васильева-11а</t>
-  </si>
-  <si>
-    <t>Бирюкова-10б</t>
-  </si>
-  <si>
-    <t>11б</t>
-  </si>
-  <si>
-    <t>Калинина-11б</t>
-  </si>
-  <si>
-    <t>Степанян-11б</t>
-  </si>
-  <si>
-    <t>Грищенко-11б</t>
-  </si>
-  <si>
-    <t>Бирюкова-11б</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Михайлова-5а</t>
-  </si>
-  <si>
-    <t>Спиридович-7а</t>
-  </si>
-  <si>
-    <t>Синицкая-7а</t>
-  </si>
-  <si>
-    <t>Грищенко-6б</t>
-  </si>
-  <si>
-    <t>Дубова-7а</t>
-  </si>
-  <si>
-    <t>Кузикова-7а</t>
-  </si>
-  <si>
-    <t>Волкова-7а</t>
-  </si>
-  <si>
-    <t>Грищенко-7б</t>
-  </si>
-  <si>
-    <t>Синицкая-8а</t>
-  </si>
-  <si>
-    <t>Чижкина-7б</t>
-  </si>
-  <si>
-    <t>Спиридович-8а</t>
-  </si>
-  <si>
-    <t>6б</t>
-  </si>
-  <si>
-    <t>Георгиева-8а</t>
-  </si>
-  <si>
-    <t>Флоринская-8б</t>
-  </si>
-  <si>
-    <t>Селькин-7б</t>
-  </si>
-  <si>
-    <t>Реппо-6в</t>
-  </si>
-  <si>
-    <t>Флоринская-7б</t>
-  </si>
-  <si>
-    <t>Кузнецова-7в</t>
-  </si>
-  <si>
-    <t>Калинина-8б</t>
-  </si>
-  <si>
-    <t>Грищенко-8б</t>
-  </si>
-  <si>
-    <t>Кушнаренко-8в</t>
-  </si>
-  <si>
-    <t>Куликова-8в</t>
-  </si>
-  <si>
-    <t>Яковлева-8б</t>
-  </si>
-  <si>
-    <t>Михайлова-9а</t>
-  </si>
-  <si>
-    <t>Реппо-8в</t>
-  </si>
-  <si>
-    <t>Бирюкова-9б</t>
-  </si>
-  <si>
-    <t>Полозова-9в</t>
-  </si>
-  <si>
-    <t>Кузнецова-9в</t>
-  </si>
-  <si>
-    <t>Кузикова-10а</t>
-  </si>
-  <si>
-    <t>Михайлова-10а</t>
-  </si>
-  <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>Дубова-11а</t>
-  </si>
-  <si>
-    <t>Грищенко-10б</t>
-  </si>
-  <si>
-    <t>Синицкая-11а</t>
-  </si>
-  <si>
-    <t>Яковлева-10б</t>
-  </si>
-  <si>
-    <t>Селькин-10б</t>
-  </si>
-  <si>
-    <t>Автономова-11а</t>
-  </si>
-  <si>
-    <t>Селькин-11б</t>
-  </si>
-  <si>
-    <t>Чижкина-11б</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Спиридович-5а</t>
-  </si>
-  <si>
-    <t>Волкова-5а</t>
-  </si>
-  <si>
-    <t>Дубова-6а</t>
-  </si>
-  <si>
-    <t>Селькин-5б</t>
-  </si>
-  <si>
-    <t>Григорьева-5в</t>
-  </si>
-  <si>
-    <t>Флоринская-6б</t>
-  </si>
-  <si>
-    <t>Орлова-5в</t>
-  </si>
-  <si>
-    <t>Автономова-6а</t>
-  </si>
-  <si>
-    <t>Платунова-5б</t>
-  </si>
-  <si>
-    <t>Кузнецова-5в</t>
-  </si>
-  <si>
-    <t>Полозова-6в</t>
-  </si>
-  <si>
-    <t>Яковлева-7б</t>
-  </si>
-  <si>
-    <t>Васильева-8а</t>
-  </si>
-  <si>
-    <t>Калинина-7б</t>
-  </si>
-  <si>
-    <t>Чулкова-7в</t>
-  </si>
-  <si>
-    <t>Калинина-9б</t>
-  </si>
-  <si>
-    <t>Синицкая-9а</t>
-  </si>
-  <si>
-    <t>Дубова-9а</t>
-  </si>
-  <si>
-    <t>Григорьева-8в</t>
-  </si>
-  <si>
-    <t>Спиридович-10а</t>
-  </si>
-  <si>
-    <t>Кузьмина-11а</t>
-  </si>
-  <si>
-    <t>Платунова-11б</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Степанян-6б</t>
-  </si>
-  <si>
-    <t>Калинина-6б</t>
-  </si>
-  <si>
-    <t>Васильева-9а</t>
-  </si>
-  <si>
-    <t>Полозова-7в</t>
-  </si>
-  <si>
-    <t>Чулкова-8в</t>
-  </si>
-  <si>
-    <t>Чижкина-9б</t>
-  </si>
-  <si>
-    <t>Куликова-9в</t>
-  </si>
-  <si>
-    <t>Флоринская-10б</t>
-  </si>
-  <si>
-    <t>Платунова-10б</t>
-  </si>
-  <si>
-    <t>Флоринская-11б</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Георгиева-6а</t>
-  </si>
-  <si>
-    <t>Автономова-8а</t>
-  </si>
-  <si>
-    <t>Кузикова-8а</t>
-  </si>
-  <si>
-    <t>Волкова-8а</t>
-  </si>
-  <si>
-    <t>Бирюкова-8б</t>
-  </si>
-  <si>
-    <t>Степанян-9б</t>
-  </si>
-  <si>
-    <t>Георгиева-10а</t>
-  </si>
-  <si>
-    <t>Кузикова-11а</t>
-  </si>
-  <si>
-    <t>Яковлева-11б</t>
   </si>
 </sst>
 </file>
@@ -678,419 +681,419 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G9" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
         <v>94</v>
       </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
         <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
       </c>
       <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
         <v>106</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21"/>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -1098,445 +1101,445 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" t="s">
         <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G37" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H38" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
         <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="H39" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
         <v>94</v>
       </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" t="s">
-        <v>144</v>
-      </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="H40" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
         <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="H41" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42"/>
     <row r="43">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44">
@@ -1544,19 +1547,19 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
         <v>3</v>
-      </c>
-      <c r="E44" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="45">
@@ -1564,372 +1567,372 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" t="s">
-        <v>49</v>
-      </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H57" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F59" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="G59" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="H59" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
         <v>98</v>
@@ -1938,45 +1941,45 @@
         <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
         <v>170</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G61" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H61" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" t="s">
         <v>104</v>
       </c>
-      <c r="B62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" t="s">
+        <v>101</v>
+      </c>
+      <c r="G62" t="s">
         <v>171</v>
       </c>
-      <c r="D62" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" t="s">
-        <v>106</v>
-      </c>
-      <c r="F62" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" t="s">
-        <v>106</v>
-      </c>
       <c r="H62" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63"/>
@@ -1990,19 +1993,19 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" t="s">
         <v>2</v>
       </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" t="s">
-        <v>6</v>
-      </c>
       <c r="E65" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66">
@@ -2010,39 +2013,39 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68">
@@ -2050,385 +2053,385 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
         <v>13</v>
       </c>
-      <c r="B71" t="s">
-        <v>156</v>
-      </c>
       <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
         <v>14</v>
       </c>
-      <c r="D71" t="s">
-        <v>159</v>
-      </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G71" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F73" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" t="s">
         <v>122</v>
       </c>
-      <c r="C74" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" t="s">
-        <v>163</v>
-      </c>
       <c r="F74" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="F75" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="G75" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D76" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="F76" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F77" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="G77" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="H77" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D78" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F78" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="G78" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="H78" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="G79" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="E80" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G80" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H80" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="F81" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G81" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="H82" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
         <v>104</v>
       </c>
-      <c r="B83" t="s">
-        <v>171</v>
-      </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="E83" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="F83" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84"/>
     <row r="85">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86">
@@ -2436,439 +2439,439 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
         <v>6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s">
         <v>11</v>
       </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="E89" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
         <v>114</v>
       </c>
-      <c r="E90" t="s">
-        <v>38</v>
-      </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E91" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="F91" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="G92" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" t="s">
         <v>30</v>
       </c>
-      <c r="B93" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" t="s">
-        <v>44</v>
-      </c>
       <c r="D93" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E93" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="G93" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="D94" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E94" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F94" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="G94" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="D95" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" t="s">
         <v>47</v>
       </c>
-      <c r="B96" t="s">
-        <v>166</v>
-      </c>
-      <c r="C96" t="s">
-        <v>53</v>
-      </c>
       <c r="D96" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="E96" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G96" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E97" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="F97" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="G97" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="D98" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="G98" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H98" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E99" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="G99" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D100" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="E100" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F100" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="G100" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H100" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B101" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C101" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="D101" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F101" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="G101" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C102" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E102" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="F102" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="G102" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="H102" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="E103" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="F103" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G103" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="H103" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" t="s">
+        <v>153</v>
+      </c>
+      <c r="G104" t="s">
+        <v>106</v>
+      </c>
+      <c r="H104" t="s">
         <v>171</v>
-      </c>
-      <c r="D104" t="s">
-        <v>105</v>
-      </c>
-      <c r="E104" t="s">
-        <v>105</v>
-      </c>
-      <c r="F104" t="s">
-        <v>192</v>
-      </c>
-      <c r="G104" t="s">
-        <v>192</v>
-      </c>
-      <c r="H104" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="105"/>

--- a/src/main/resources/xlsx/result.xlsx
+++ b/src/main/resources/xlsx/result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="474">
   <si>
     <t>Monday</t>
   </si>
@@ -21,580 +21,1420 @@
     <t>5а</t>
   </si>
   <si>
-    <t>Кузикова-5а</t>
-  </si>
-  <si>
-    <t>Волкова-5а</t>
-  </si>
-  <si>
-    <t>Михайлова-5а</t>
-  </si>
-  <si>
-    <t>Спиридович-5а</t>
-  </si>
-  <si>
-    <t>Васильева-5а</t>
+    <t>Волкова-5а-1</t>
+  </si>
+  <si>
+    <t>Михайлова-5а-2</t>
+  </si>
+  <si>
+    <t>Кузьмина-5а-3</t>
+  </si>
+  <si>
+    <t>Дубова-5а-4</t>
+  </si>
+  <si>
+    <t>Дубова-5а-5</t>
+  </si>
+  <si>
+    <t>5б</t>
+  </si>
+  <si>
+    <t>Флоринская-5б-1</t>
+  </si>
+  <si>
+    <t>Бирюкова-5б-2</t>
+  </si>
+  <si>
+    <t>Калинина-5б-3</t>
+  </si>
+  <si>
+    <t>Грищенко-5б-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-5б-5</t>
+  </si>
+  <si>
+    <t>5в</t>
+  </si>
+  <si>
+    <t>Кушнаренко-5в-1</t>
+  </si>
+  <si>
+    <t>Орлова-5в-2</t>
+  </si>
+  <si>
+    <t>Загребельная-5в-3</t>
+  </si>
+  <si>
+    <t>Орлова-5в-4</t>
+  </si>
+  <si>
+    <t>Куликова-5в-5</t>
   </si>
   <si>
     <t>6а</t>
   </si>
   <si>
-    <t>Автономова-6а</t>
-  </si>
-  <si>
-    <t>Кузикова-6а</t>
-  </si>
-  <si>
-    <t>Чижкина-5б</t>
-  </si>
-  <si>
-    <t>Яковлева-5б</t>
-  </si>
-  <si>
-    <t>5в</t>
-  </si>
-  <si>
-    <t>Кушнаренко-5в</t>
-  </si>
-  <si>
-    <t>Бирюкова-6б</t>
-  </si>
-  <si>
-    <t>Загребельная-5в</t>
-  </si>
-  <si>
-    <t>Чижкина-6б</t>
-  </si>
-  <si>
-    <t>5б</t>
-  </si>
-  <si>
-    <t>Калинина-5б</t>
-  </si>
-  <si>
-    <t>Селькин-5б</t>
-  </si>
-  <si>
-    <t>Грищенко-5б</t>
-  </si>
-  <si>
-    <t>Флоринская-5б</t>
-  </si>
-  <si>
-    <t>Степанян-5б</t>
-  </si>
-  <si>
-    <t>Реппо-5в</t>
-  </si>
-  <si>
-    <t>Платунова-6б</t>
-  </si>
-  <si>
-    <t>Полозова-5в</t>
-  </si>
-  <si>
-    <t>Михайлова-7а</t>
+    <t>Георгиева-6а-1</t>
+  </si>
+  <si>
+    <t>Автономова-6а-2</t>
+  </si>
+  <si>
+    <t>Синицкая-6а-3</t>
+  </si>
+  <si>
+    <t>Спиридович-6а-4</t>
+  </si>
+  <si>
+    <t>Васильева-6а-5</t>
+  </si>
+  <si>
+    <t>6б</t>
+  </si>
+  <si>
+    <t>Грищенко-6б-1</t>
+  </si>
+  <si>
+    <t>Бирюкова-6б-2</t>
+  </si>
+  <si>
+    <t>Калинина-6б-3</t>
+  </si>
+  <si>
+    <t>Чижкина-6б-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-6б-5</t>
+  </si>
+  <si>
+    <t>6в</t>
+  </si>
+  <si>
+    <t>Кузнецова-6в-1</t>
+  </si>
+  <si>
+    <t>Чулкова-6в-2</t>
+  </si>
+  <si>
+    <t>Григорьева-6в-3</t>
+  </si>
+  <si>
+    <t>Кузнецова-6в-4</t>
+  </si>
+  <si>
+    <t>Куликова-6в-5</t>
+  </si>
+  <si>
+    <t>7а</t>
+  </si>
+  <si>
+    <t>Кузикова-7а-1</t>
+  </si>
+  <si>
+    <t>Кузикова-7а-2</t>
+  </si>
+  <si>
+    <t>Васильева-7а-3</t>
+  </si>
+  <si>
+    <t>Дубова-7а-4</t>
+  </si>
+  <si>
+    <t>Васильева-7а-5</t>
+  </si>
+  <si>
+    <t>Синицкая-7а-6</t>
   </si>
   <si>
     <t>7б</t>
   </si>
   <si>
-    <t>Степанян-7б</t>
-  </si>
-  <si>
-    <t>Реппо-6в</t>
-  </si>
-  <si>
-    <t>Чулкова-6в</t>
-  </si>
-  <si>
-    <t>Полозова-6в</t>
-  </si>
-  <si>
-    <t>7а</t>
-  </si>
-  <si>
-    <t>Синицкая-7а</t>
-  </si>
-  <si>
-    <t>Григорьева-5в</t>
-  </si>
-  <si>
-    <t>Кузьмина-7а</t>
-  </si>
-  <si>
-    <t>Степанян-6б</t>
-  </si>
-  <si>
-    <t>6в</t>
-  </si>
-  <si>
-    <t>Загребельная-6в</t>
-  </si>
-  <si>
-    <t>Автономова-8а</t>
-  </si>
-  <si>
-    <t>Куликова-6в</t>
-  </si>
-  <si>
-    <t>Бирюкова-7б</t>
-  </si>
-  <si>
-    <t>Дубова-8а</t>
+    <t>Грищенко-7б-1</t>
+  </si>
+  <si>
+    <t>Грищенко-7б-2</t>
+  </si>
+  <si>
+    <t>Степанян-7б-3</t>
+  </si>
+  <si>
+    <t>Грищенко-7б-4</t>
+  </si>
+  <si>
+    <t>Калинина-7б-5</t>
+  </si>
+  <si>
+    <t>Бирюкова-7б-6</t>
+  </si>
+  <si>
+    <t>7в</t>
+  </si>
+  <si>
+    <t>Загребельная-7в-1</t>
+  </si>
+  <si>
+    <t>Григорьева-7в-2</t>
+  </si>
+  <si>
+    <t>Кушнаренко-7в-3</t>
+  </si>
+  <si>
+    <t>Кузнецова-7в-4</t>
+  </si>
+  <si>
+    <t>Куликова-7в-5</t>
+  </si>
+  <si>
+    <t>Куликова-7в-6</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>Георгиева-8а-1</t>
+  </si>
+  <si>
+    <t>Автономова-8а-2</t>
+  </si>
+  <si>
+    <t>Автономова-8а-3</t>
+  </si>
+  <si>
+    <t>Автономова-8а-4</t>
+  </si>
+  <si>
+    <t>Васильева-8а-5</t>
+  </si>
+  <si>
+    <t>Синицкая-8а-6</t>
   </si>
   <si>
     <t>8б</t>
   </si>
   <si>
-    <t>Яковлева-8б</t>
-  </si>
-  <si>
-    <t>Грищенко-8б</t>
-  </si>
-  <si>
-    <t>Чижкина-8б</t>
-  </si>
-  <si>
-    <t>Селькин-8б</t>
-  </si>
-  <si>
-    <t>Платунова-8б</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>Волкова-8а</t>
-  </si>
-  <si>
-    <t>Кушнаренко-6в</t>
-  </si>
-  <si>
-    <t>Флоринская-8б</t>
-  </si>
-  <si>
-    <t>Орлова-7в</t>
-  </si>
-  <si>
-    <t>Волкова-9а</t>
-  </si>
-  <si>
-    <t>Кузьмина-9а</t>
-  </si>
-  <si>
-    <t>Полозова-7в</t>
+    <t>Степанян-8б-1</t>
+  </si>
+  <si>
+    <t>Калинина-8б-2</t>
+  </si>
+  <si>
+    <t>Калинина-8б-3</t>
+  </si>
+  <si>
+    <t>Чижкина-8б-4</t>
+  </si>
+  <si>
+    <t>Степанян-8б-5</t>
+  </si>
+  <si>
+    <t>Яковлева-8б-6</t>
   </si>
   <si>
     <t>8в</t>
   </si>
   <si>
-    <t>Орлова-8в</t>
-  </si>
-  <si>
-    <t>Кузнецова-8в</t>
-  </si>
-  <si>
-    <t>Куликова-8в</t>
-  </si>
-  <si>
-    <t>Бирюкова-9б</t>
-  </si>
-  <si>
-    <t>Чижкина-9б</t>
-  </si>
-  <si>
-    <t>7в</t>
-  </si>
-  <si>
-    <t>Чулкова-7в</t>
-  </si>
-  <si>
-    <t>Дубова-9а</t>
-  </si>
-  <si>
-    <t>Калинина-8б</t>
-  </si>
-  <si>
-    <t>Бирюкова-8б</t>
-  </si>
-  <si>
-    <t>Михайлова-9а</t>
+    <t>Кушнаренко-8в-1</t>
+  </si>
+  <si>
+    <t>Григорьева-8в-2</t>
+  </si>
+  <si>
+    <t>Куликова-8в-3</t>
+  </si>
+  <si>
+    <t>Орлова-8в-4</t>
+  </si>
+  <si>
+    <t>Куликова-8в-5</t>
+  </si>
+  <si>
+    <t>Орлова-8в-6</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>Кузьмина-9а-1</t>
+  </si>
+  <si>
+    <t>Михайлова-9а-2</t>
+  </si>
+  <si>
+    <t>Спиридович-9а-3</t>
+  </si>
+  <si>
+    <t>Васильева-9а-4</t>
+  </si>
+  <si>
+    <t>Спиридович-9а-5</t>
+  </si>
+  <si>
+    <t>Кузьмина-9а-6</t>
+  </si>
+  <si>
+    <t>Георгиева-9а-7</t>
   </si>
   <si>
     <t>9б</t>
   </si>
   <si>
-    <t>Платунова-9б</t>
-  </si>
-  <si>
-    <t>Калинина-9б</t>
-  </si>
-  <si>
-    <t>Реппо-8в</t>
-  </si>
-  <si>
-    <t>Степанян-9б</t>
+    <t>Селькин-9б-1</t>
+  </si>
+  <si>
+    <t>Яковлева-9б-2</t>
+  </si>
+  <si>
+    <t>Калинина-9б-3</t>
+  </si>
+  <si>
+    <t>Степанян-9б-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-9б-5</t>
+  </si>
+  <si>
+    <t>Чижкина-9б-6</t>
+  </si>
+  <si>
+    <t>Чижкина-9б-7</t>
   </si>
   <si>
     <t>9в</t>
   </si>
   <si>
-    <t>Кузнецова-9в</t>
-  </si>
-  <si>
-    <t>Куликова-9в</t>
-  </si>
-  <si>
-    <t>Григорьева-9в</t>
-  </si>
-  <si>
-    <t>Орлова-9в</t>
+    <t>Кузнецова-9в-1</t>
+  </si>
+  <si>
+    <t>Загребельная-9в-2</t>
+  </si>
+  <si>
+    <t>Куликова-9в-3</t>
+  </si>
+  <si>
+    <t>Полозова-9в-4</t>
+  </si>
+  <si>
+    <t>Полозова-9в-5</t>
+  </si>
+  <si>
+    <t>Полозова-9в-6</t>
+  </si>
+  <si>
+    <t>Кушнаренко-9в-7</t>
   </si>
   <si>
     <t>10а</t>
   </si>
   <si>
-    <t>Кузьмина-10а</t>
-  </si>
-  <si>
-    <t>Кузикова-10а</t>
-  </si>
-  <si>
-    <t>Михайлова-10а</t>
-  </si>
-  <si>
-    <t>Спиридович-10а</t>
-  </si>
-  <si>
-    <t>Синицкая-10а</t>
-  </si>
-  <si>
-    <t>Волкова-10а</t>
+    <t>Георгиева-10а-1</t>
+  </si>
+  <si>
+    <t>Дубова-10а-2</t>
+  </si>
+  <si>
+    <t>Васильева-10а-3</t>
+  </si>
+  <si>
+    <t>Кузьмина-10а-4</t>
+  </si>
+  <si>
+    <t>Волкова-10а-5</t>
+  </si>
+  <si>
+    <t>Васильева-10а-6</t>
+  </si>
+  <si>
+    <t>Георгиева-10а-7</t>
   </si>
   <si>
     <t>10б</t>
   </si>
   <si>
-    <t>Селькин-10б</t>
-  </si>
-  <si>
-    <t>Синицкая-11а</t>
-  </si>
-  <si>
-    <t>Дубова-11а</t>
-  </si>
-  <si>
-    <t>Васильева-11а</t>
-  </si>
-  <si>
-    <t>Грищенко-10б</t>
+    <t>Грищенко-10б-1</t>
+  </si>
+  <si>
+    <t>Яковлева-10б-2</t>
+  </si>
+  <si>
+    <t>Грищенко-10б-3</t>
+  </si>
+  <si>
+    <t>Степанян-10б-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-10б-5</t>
+  </si>
+  <si>
+    <t>Бирюкова-10б-6</t>
+  </si>
+  <si>
+    <t>Степанян-10б-7</t>
   </si>
   <si>
     <t>11а</t>
   </si>
   <si>
-    <t>Георгиева-11а</t>
-  </si>
-  <si>
-    <t>Яковлева-10б</t>
-  </si>
-  <si>
-    <t>Спиридович-11а</t>
-  </si>
-  <si>
-    <t>Платунова-10б</t>
-  </si>
-  <si>
-    <t>Кузьмина-11а</t>
-  </si>
-  <si>
-    <t>Калинина-10б</t>
-  </si>
-  <si>
-    <t>Бирюкова-10б</t>
+    <t>Спиридович-11а-1</t>
+  </si>
+  <si>
+    <t>Кузьмина-11а-2</t>
+  </si>
+  <si>
+    <t>Васильева-11а-3</t>
+  </si>
+  <si>
+    <t>Михайлова-11а-4</t>
+  </si>
+  <si>
+    <t>Спиридович-11а-5</t>
+  </si>
+  <si>
+    <t>Синицкая-11а-6</t>
+  </si>
+  <si>
+    <t>Волкова-11а-7</t>
   </si>
   <si>
     <t>11б</t>
   </si>
   <si>
-    <t>Грищенко-11б</t>
-  </si>
-  <si>
-    <t>Бирюкова-11б</t>
-  </si>
-  <si>
-    <t>Селькин-11б</t>
-  </si>
-  <si>
-    <t>Яковлева-11б</t>
-  </si>
-  <si>
-    <t>Флоринская-11б</t>
-  </si>
-  <si>
-    <t>Степанян-11б</t>
+    <t>Платунова-11б-1</t>
+  </si>
+  <si>
+    <t>Селькин-11б-2</t>
+  </si>
+  <si>
+    <t>Степанян-11б-3</t>
+  </si>
+  <si>
+    <t>Яковлева-11б-4</t>
+  </si>
+  <si>
+    <t>Платунова-11б-5</t>
+  </si>
+  <si>
+    <t>Чижкина-11б-6</t>
+  </si>
+  <si>
+    <t>Бирюкова-11б-7</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>Автономова-5а</t>
-  </si>
-  <si>
-    <t>Синицкая-5а</t>
-  </si>
-  <si>
-    <t>Дубова-5а</t>
-  </si>
-  <si>
-    <t>Дубова-6а</t>
-  </si>
-  <si>
-    <t>Волкова-6а</t>
-  </si>
-  <si>
-    <t>6б</t>
-  </si>
-  <si>
-    <t>Автономова-7а</t>
-  </si>
-  <si>
-    <t>Михайлова-6а</t>
-  </si>
-  <si>
-    <t>Васильева-6а</t>
-  </si>
-  <si>
-    <t>Кузьмина-6а</t>
-  </si>
-  <si>
-    <t>Георгиева-7а</t>
-  </si>
-  <si>
-    <t>Спиридович-7а</t>
-  </si>
-  <si>
-    <t>Кузнецова-6в</t>
-  </si>
-  <si>
-    <t>Селькин-7б</t>
-  </si>
-  <si>
-    <t>Яковлева-7б</t>
-  </si>
-  <si>
-    <t>Яковлева-6б</t>
-  </si>
-  <si>
-    <t>Орлова-5в</t>
-  </si>
-  <si>
-    <t>Кузикова-7а</t>
-  </si>
-  <si>
-    <t>Григорьева-6в</t>
-  </si>
-  <si>
-    <t>Флоринская-7б</t>
-  </si>
-  <si>
-    <t>9а</t>
-  </si>
-  <si>
-    <t>Реппо-7в</t>
-  </si>
-  <si>
-    <t>Григорьева-7в</t>
-  </si>
-  <si>
-    <t>Калинина-7б</t>
-  </si>
-  <si>
-    <t>Грищенко-7б</t>
-  </si>
-  <si>
-    <t>Спиридович-8а</t>
-  </si>
-  <si>
-    <t>Кушнаренко-7в</t>
-  </si>
-  <si>
-    <t>Степанян-8б</t>
-  </si>
-  <si>
-    <t>Григорьева-8в</t>
-  </si>
-  <si>
-    <t>Кушнаренко-8в</t>
-  </si>
-  <si>
-    <t>Синицкая-9а</t>
-  </si>
-  <si>
-    <t>Спиридович-9а</t>
-  </si>
-  <si>
-    <t>Загребельная-7в</t>
-  </si>
-  <si>
-    <t>Селькин-9б</t>
-  </si>
-  <si>
-    <t>Чулкова-8в</t>
-  </si>
-  <si>
-    <t>Флоринская-9б</t>
-  </si>
-  <si>
-    <t>Полозова-8в</t>
-  </si>
-  <si>
-    <t>Грищенко-9б</t>
-  </si>
-  <si>
-    <t>Кушнаренко-9в</t>
-  </si>
-  <si>
-    <t>Васильева-10а</t>
-  </si>
-  <si>
-    <t>Георгиева-10а</t>
-  </si>
-  <si>
-    <t>Чижкина-10б</t>
-  </si>
-  <si>
-    <t>Волкова-11а</t>
-  </si>
-  <si>
-    <t>Кузикова-11а</t>
-  </si>
-  <si>
-    <t>Михайлова-11а</t>
-  </si>
-  <si>
-    <t>Калинина-11б</t>
+    <t>Кузьмина-5а-1</t>
+  </si>
+  <si>
+    <t>Дубова-5а-2</t>
+  </si>
+  <si>
+    <t>Автономова-5а-3</t>
+  </si>
+  <si>
+    <t>Автономова-5а-4</t>
+  </si>
+  <si>
+    <t>Кузьмина-5а-5</t>
+  </si>
+  <si>
+    <t>Яковлева-5б-1</t>
+  </si>
+  <si>
+    <t>Флоринская-5б-2</t>
+  </si>
+  <si>
+    <t>Степанян-5б-3</t>
+  </si>
+  <si>
+    <t>Селькин-5б-4</t>
+  </si>
+  <si>
+    <t>Калинина-5б-5</t>
+  </si>
+  <si>
+    <t>Кузнецова-5в-1</t>
+  </si>
+  <si>
+    <t>Полозова-5в-2</t>
+  </si>
+  <si>
+    <t>Григорьева-5в-3</t>
+  </si>
+  <si>
+    <t>Полозова-5в-5</t>
+  </si>
+  <si>
+    <t>Васильева-6а-2</t>
+  </si>
+  <si>
+    <t>Спиридович-6а-3</t>
+  </si>
+  <si>
+    <t>Кузьмина-6а-4</t>
+  </si>
+  <si>
+    <t>Яковлева-6б-1</t>
+  </si>
+  <si>
+    <t>Селькин-6б-3</t>
+  </si>
+  <si>
+    <t>Флоринская-6б-4</t>
+  </si>
+  <si>
+    <t>Степанян-6б-5</t>
+  </si>
+  <si>
+    <t>Реппо-6в-1</t>
+  </si>
+  <si>
+    <t>Загребельная-6в-2</t>
+  </si>
+  <si>
+    <t>Орлова-6в-3</t>
+  </si>
+  <si>
+    <t>Кушнаренко-6в-4</t>
+  </si>
+  <si>
+    <t>Григорьева-6в-5</t>
+  </si>
+  <si>
+    <t>Синицкая-7а-1</t>
+  </si>
+  <si>
+    <t>Синицкая-7а-4</t>
+  </si>
+  <si>
+    <t>Кузьмина-7а-5</t>
+  </si>
+  <si>
+    <t>Васильева-7а-6</t>
+  </si>
+  <si>
+    <t>Степанян-7б-1</t>
+  </si>
+  <si>
+    <t>Платунова-7б-2</t>
+  </si>
+  <si>
+    <t>Калинина-7б-3</t>
+  </si>
+  <si>
+    <t>Яковлева-7б-4</t>
+  </si>
+  <si>
+    <t>Платунова-7б-5</t>
+  </si>
+  <si>
+    <t>Грищенко-7б-6</t>
+  </si>
+  <si>
+    <t>Чулкова-7в-1</t>
+  </si>
+  <si>
+    <t>Кузнецова-7в-2</t>
+  </si>
+  <si>
+    <t>Орлова-7в-3</t>
+  </si>
+  <si>
+    <t>Полозова-7в-4</t>
+  </si>
+  <si>
+    <t>Кузнецова-7в-5</t>
+  </si>
+  <si>
+    <t>Кузнецова-7в-6</t>
+  </si>
+  <si>
+    <t>Васильева-8а-2</t>
+  </si>
+  <si>
+    <t>Дубова-8а-3</t>
+  </si>
+  <si>
+    <t>Михайлова-8а-4</t>
+  </si>
+  <si>
+    <t>Волкова-8а-5</t>
+  </si>
+  <si>
+    <t>Васильева-8а-6</t>
+  </si>
+  <si>
+    <t>Грищенко-8б-1</t>
+  </si>
+  <si>
+    <t>Бирюкова-8б-2</t>
+  </si>
+  <si>
+    <t>Платунова-8б-3</t>
+  </si>
+  <si>
+    <t>Платунова-8б-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-8б-5</t>
+  </si>
+  <si>
+    <t>Калинина-8б-6</t>
+  </si>
+  <si>
+    <t>Григорьева-8в-1</t>
+  </si>
+  <si>
+    <t>Григорьева-8в-3</t>
+  </si>
+  <si>
+    <t>Реппо-8в-4</t>
+  </si>
+  <si>
+    <t>Кушнаренко-8в-5</t>
+  </si>
+  <si>
+    <t>Полозова-8в-6</t>
+  </si>
+  <si>
+    <t>Волкова-9а-1</t>
+  </si>
+  <si>
+    <t>Волкова-9а-2</t>
+  </si>
+  <si>
+    <t>Кузикова-9а-3</t>
+  </si>
+  <si>
+    <t>Волкова-9а-5</t>
+  </si>
+  <si>
+    <t>Михайлова-9а-6</t>
+  </si>
+  <si>
+    <t>Михайлова-9а-7</t>
+  </si>
+  <si>
+    <t>Яковлева-9б-1</t>
+  </si>
+  <si>
+    <t>Флоринская-9б-2</t>
+  </si>
+  <si>
+    <t>Селькин-9б-3</t>
+  </si>
+  <si>
+    <t>Платунова-9б-4</t>
+  </si>
+  <si>
+    <t>Степанян-9б-5</t>
+  </si>
+  <si>
+    <t>Калинина-9б-6</t>
+  </si>
+  <si>
+    <t>Степанян-9б-7</t>
+  </si>
+  <si>
+    <t>Орлова-9в-1</t>
+  </si>
+  <si>
+    <t>Чулкова-9в-2</t>
+  </si>
+  <si>
+    <t>Куликова-9в-4</t>
+  </si>
+  <si>
+    <t>Кузнецова-9в-5</t>
+  </si>
+  <si>
+    <t>Кузнецова-9в-6</t>
+  </si>
+  <si>
+    <t>Волкова-10а-1</t>
+  </si>
+  <si>
+    <t>Михайлова-10а-2</t>
+  </si>
+  <si>
+    <t>Дубова-10а-3</t>
+  </si>
+  <si>
+    <t>Волкова-10а-4</t>
+  </si>
+  <si>
+    <t>Спиридович-10а-5</t>
+  </si>
+  <si>
+    <t>Михайлова-10а-6</t>
+  </si>
+  <si>
+    <t>Михайлова-10а-7</t>
+  </si>
+  <si>
+    <t>Флоринская-10б-1</t>
+  </si>
+  <si>
+    <t>Флоринская-10б-2</t>
+  </si>
+  <si>
+    <t>Калинина-10б-4</t>
+  </si>
+  <si>
+    <t>Калинина-10б-5</t>
+  </si>
+  <si>
+    <t>Калинина-10б-6</t>
+  </si>
+  <si>
+    <t>Чижкина-10б-7</t>
+  </si>
+  <si>
+    <t>Автономова-11а-1</t>
+  </si>
+  <si>
+    <t>Дубова-11а-2</t>
+  </si>
+  <si>
+    <t>Синицкая-11а-3</t>
+  </si>
+  <si>
+    <t>Васильева-11а-6</t>
+  </si>
+  <si>
+    <t>Георгиева-11а-7</t>
+  </si>
+  <si>
+    <t>Селькин-11б-1</t>
+  </si>
+  <si>
+    <t>Калинина-11б-2</t>
+  </si>
+  <si>
+    <t>Селькин-11б-3</t>
+  </si>
+  <si>
+    <t>Калинина-11б-4</t>
+  </si>
+  <si>
+    <t>Грищенко-11б-6</t>
+  </si>
+  <si>
+    <t>Чижкина-11б-7</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>Георгиева-6а</t>
-  </si>
-  <si>
-    <t>Платунова-5б</t>
-  </si>
-  <si>
-    <t>Синицкая-6а</t>
-  </si>
-  <si>
-    <t>Бирюкова-5б</t>
-  </si>
-  <si>
-    <t>Дубова-7а</t>
-  </si>
-  <si>
-    <t>Селькин-6б</t>
-  </si>
-  <si>
-    <t>Кузнецова-5в</t>
-  </si>
-  <si>
-    <t>Васильева-7а</t>
-  </si>
-  <si>
-    <t>Грищенко-6б</t>
-  </si>
-  <si>
-    <t>Орлова-6в</t>
-  </si>
-  <si>
-    <t>Кузнецова-7в</t>
-  </si>
-  <si>
-    <t>Куликова-7в</t>
-  </si>
-  <si>
-    <t>Загребельная-8в</t>
-  </si>
-  <si>
-    <t>Реппо-9в</t>
-  </si>
-  <si>
-    <t>Степанян-10б</t>
-  </si>
-  <si>
-    <t>Автономова-11а</t>
-  </si>
-  <si>
-    <t>Чижкина-11б</t>
+    <t>Михайлова-5а-1</t>
+  </si>
+  <si>
+    <t>Волкова-5а-3</t>
+  </si>
+  <si>
+    <t>Кузьмина-5а-4</t>
+  </si>
+  <si>
+    <t>Спиридович-5а-5</t>
+  </si>
+  <si>
+    <t>Бирюкова-5б-3</t>
+  </si>
+  <si>
+    <t>Бирюкова-5б-4</t>
+  </si>
+  <si>
+    <t>Реппо-5в-1</t>
+  </si>
+  <si>
+    <t>Кузнецова-5в-2</t>
+  </si>
+  <si>
+    <t>Орлова-5в-3</t>
+  </si>
+  <si>
+    <t>Кузнецова-5в-4</t>
+  </si>
+  <si>
+    <t>Кушнаренко-5в-5</t>
+  </si>
+  <si>
+    <t>Кузьмина-6а-1</t>
+  </si>
+  <si>
+    <t>Васильева-6а-4</t>
+  </si>
+  <si>
+    <t>Кузьмина-6а-5</t>
+  </si>
+  <si>
+    <t>Платунова-6б-1</t>
+  </si>
+  <si>
+    <t>Платунова-6б-2</t>
+  </si>
+  <si>
+    <t>Загребельная-6в-1</t>
+  </si>
+  <si>
+    <t>Кушнаренко-6в-2</t>
+  </si>
+  <si>
+    <t>Загребельная-6в-4</t>
+  </si>
+  <si>
+    <t>Васильева-7а-1</t>
+  </si>
+  <si>
+    <t>Кузьмина-7а-2</t>
+  </si>
+  <si>
+    <t>Дубова-7а-3</t>
+  </si>
+  <si>
+    <t>Михайлова-7а-4</t>
+  </si>
+  <si>
+    <t>Дубова-7а-5</t>
+  </si>
+  <si>
+    <t>Михайлова-7а-6</t>
+  </si>
+  <si>
+    <t>Яковлева-7б-2</t>
+  </si>
+  <si>
+    <t>Селькин-7б-3</t>
+  </si>
+  <si>
+    <t>Чижкина-7б-5</t>
+  </si>
+  <si>
+    <t>Яковлева-7б-6</t>
+  </si>
+  <si>
+    <t>Куликова-7в-2</t>
+  </si>
+  <si>
+    <t>Григорьева-7в-3</t>
+  </si>
+  <si>
+    <t>Реппо-7в-5</t>
+  </si>
+  <si>
+    <t>Кушнаренко-7в-6</t>
+  </si>
+  <si>
+    <t>Михайлова-8а-1</t>
+  </si>
+  <si>
+    <t>Кузьмина-8а-2</t>
+  </si>
+  <si>
+    <t>Васильева-8а-3</t>
+  </si>
+  <si>
+    <t>Синицкая-8а-4</t>
+  </si>
+  <si>
+    <t>Дубова-8а-5</t>
+  </si>
+  <si>
+    <t>Михайлова-8а-6</t>
+  </si>
+  <si>
+    <t>Степанян-8б-2</t>
+  </si>
+  <si>
+    <t>Грищенко-8б-3</t>
+  </si>
+  <si>
+    <t>Яковлева-8б-4</t>
+  </si>
+  <si>
+    <t>Грищенко-8б-5</t>
+  </si>
+  <si>
+    <t>Реппо-8в-1</t>
+  </si>
+  <si>
+    <t>Реппо-8в-2</t>
+  </si>
+  <si>
+    <t>Полозова-8в-4</t>
+  </si>
+  <si>
+    <t>Реппо-8в-5</t>
+  </si>
+  <si>
+    <t>Куликова-8в-6</t>
+  </si>
+  <si>
+    <t>Георгиева-9а-1</t>
+  </si>
+  <si>
+    <t>Кузьмина-9а-2</t>
+  </si>
+  <si>
+    <t>Волкова-9а-3</t>
+  </si>
+  <si>
+    <t>Синицкая-9а-4</t>
+  </si>
+  <si>
+    <t>Васильева-9а-5</t>
+  </si>
+  <si>
+    <t>Васильева-9а-6</t>
+  </si>
+  <si>
+    <t>Волкова-9а-7</t>
+  </si>
+  <si>
+    <t>Платунова-9б-1</t>
+  </si>
+  <si>
+    <t>Степанян-9б-2</t>
+  </si>
+  <si>
+    <t>Грищенко-9б-5</t>
+  </si>
+  <si>
+    <t>Бирюкова-9б-6</t>
+  </si>
+  <si>
+    <t>Кушнаренко-9в-1</t>
+  </si>
+  <si>
+    <t>Реппо-9в-2</t>
+  </si>
+  <si>
+    <t>Чулкова-9в-3</t>
+  </si>
+  <si>
+    <t>Кузнецова-9в-4</t>
+  </si>
+  <si>
+    <t>Реппо-9в-5</t>
+  </si>
+  <si>
+    <t>Кушнаренко-9в-6</t>
+  </si>
+  <si>
+    <t>Кузьмина-10а-1</t>
+  </si>
+  <si>
+    <t>Спиридович-10а-2</t>
+  </si>
+  <si>
+    <t>Синицкая-10а-3</t>
+  </si>
+  <si>
+    <t>Дубова-10а-4</t>
+  </si>
+  <si>
+    <t>Дубова-10а-5</t>
+  </si>
+  <si>
+    <t>Волкова-10а-7</t>
+  </si>
+  <si>
+    <t>Селькин-10б-1</t>
+  </si>
+  <si>
+    <t>Степанян-10б-2</t>
+  </si>
+  <si>
+    <t>Чижкина-10б-3</t>
+  </si>
+  <si>
+    <t>Бирюкова-10б-4</t>
+  </si>
+  <si>
+    <t>Степанян-10б-5</t>
+  </si>
+  <si>
+    <t>Чижкина-10б-6</t>
+  </si>
+  <si>
+    <t>Бирюкова-10б-7</t>
+  </si>
+  <si>
+    <t>Михайлова-11а-1</t>
+  </si>
+  <si>
+    <t>Васильева-11а-2</t>
+  </si>
+  <si>
+    <t>Дубова-11а-3</t>
+  </si>
+  <si>
+    <t>Волкова-11а-4</t>
+  </si>
+  <si>
+    <t>Волкова-11а-5</t>
+  </si>
+  <si>
+    <t>Михайлова-11а-6</t>
+  </si>
+  <si>
+    <t>Дубова-11а-7</t>
+  </si>
+  <si>
+    <t>Яковлева-11б-2</t>
+  </si>
+  <si>
+    <t>Платунова-11б-3</t>
+  </si>
+  <si>
+    <t>Флоринская-11б-4</t>
+  </si>
+  <si>
+    <t>Грищенко-11б-5</t>
+  </si>
+  <si>
+    <t>Калинина-11б-6</t>
+  </si>
+  <si>
+    <t>Грищенко-11б-7</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>Кузьмина-5а</t>
-  </si>
-  <si>
-    <t>Куликова-5в</t>
-  </si>
-  <si>
-    <t>Платунова-7б</t>
-  </si>
-  <si>
-    <t>Волкова-7а</t>
-  </si>
-  <si>
-    <t>Синицкая-8а</t>
-  </si>
-  <si>
-    <t>Георгиева-9а</t>
-  </si>
-  <si>
-    <t>Чижкина-7б</t>
-  </si>
-  <si>
-    <t>Кузикова-9а</t>
-  </si>
-  <si>
-    <t>Яковлева-9б</t>
-  </si>
-  <si>
-    <t>Чулкова-9в</t>
-  </si>
-  <si>
-    <t>Автономова-10а</t>
-  </si>
-  <si>
-    <t>Флоринская-10б</t>
+    <t>Васильева-5а-2</t>
+  </si>
+  <si>
+    <t>Михайлова-5а-5</t>
+  </si>
+  <si>
+    <t>Селькин-5б-1</t>
+  </si>
+  <si>
+    <t>Чижкина-5б-5</t>
+  </si>
+  <si>
+    <t>Реппо-5в-2</t>
+  </si>
+  <si>
+    <t>Чулкова-5в-3</t>
+  </si>
+  <si>
+    <t>Куликова-5в-4</t>
+  </si>
+  <si>
+    <t>Кузикова-6а-1</t>
+  </si>
+  <si>
+    <t>Спиридович-6а-2</t>
+  </si>
+  <si>
+    <t>Кузьмина-6а-3</t>
+  </si>
+  <si>
+    <t>Синицкая-6а-4</t>
+  </si>
+  <si>
+    <t>Волкова-6а-5</t>
+  </si>
+  <si>
+    <t>Селькин-6б-1</t>
+  </si>
+  <si>
+    <t>Селькин-6б-2</t>
+  </si>
+  <si>
+    <t>Бирюкова-6б-3</t>
+  </si>
+  <si>
+    <t>Платунова-6б-4</t>
+  </si>
+  <si>
+    <t>Григорьева-6в-1</t>
+  </si>
+  <si>
+    <t>Орлова-6в-2</t>
+  </si>
+  <si>
+    <t>Загребельная-6в-3</t>
+  </si>
+  <si>
+    <t>Реппо-6в-4</t>
+  </si>
+  <si>
+    <t>Михайлова-7а-1</t>
+  </si>
+  <si>
+    <t>Васильева-7а-2</t>
+  </si>
+  <si>
+    <t>Волкова-7а-3</t>
+  </si>
+  <si>
+    <t>Автономова-7а-4</t>
+  </si>
+  <si>
+    <t>Спиридович-7а-5</t>
+  </si>
+  <si>
+    <t>Кузьмина-7а-6</t>
+  </si>
+  <si>
+    <t>Платунова-7б-1</t>
+  </si>
+  <si>
+    <t>Бирюкова-7б-2</t>
+  </si>
+  <si>
+    <t>Чижкина-7б-3</t>
+  </si>
+  <si>
+    <t>Бирюкова-7б-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-7б-5</t>
+  </si>
+  <si>
+    <t>Реппо-7в-1</t>
+  </si>
+  <si>
+    <t>Чулкова-7в-3</t>
+  </si>
+  <si>
+    <t>Михайлова-8а-2</t>
+  </si>
+  <si>
+    <t>Синицкая-8а-3</t>
+  </si>
+  <si>
+    <t>Спиридович-8а-5</t>
+  </si>
+  <si>
+    <t>Платунова-8б-1</t>
+  </si>
+  <si>
+    <t>Платунова-8б-2</t>
+  </si>
+  <si>
+    <t>Чулкова-8в-2</t>
+  </si>
+  <si>
+    <t>Загребельная-8в-3</t>
+  </si>
+  <si>
+    <t>Васильева-9а-3</t>
+  </si>
+  <si>
+    <t>Автономова-9а-4</t>
+  </si>
+  <si>
+    <t>Дубова-9а-5</t>
+  </si>
+  <si>
+    <t>Синицкая-9а-6</t>
+  </si>
+  <si>
+    <t>Бирюкова-9б-2</t>
+  </si>
+  <si>
+    <t>Калинина-9б-4</t>
+  </si>
+  <si>
+    <t>Реппо-9в-1</t>
+  </si>
+  <si>
+    <t>Кушнаренко-9в-4</t>
+  </si>
+  <si>
+    <t>Кушнаренко-9в-5</t>
+  </si>
+  <si>
+    <t>Орлова-9в-6</t>
+  </si>
+  <si>
+    <t>Орлова-9в-7</t>
+  </si>
+  <si>
+    <t>Михайлова-10а-1</t>
+  </si>
+  <si>
+    <t>Кузьмина-10а-2</t>
+  </si>
+  <si>
+    <t>Волкова-10а-3</t>
+  </si>
+  <si>
+    <t>Михайлова-10а-4</t>
+  </si>
+  <si>
+    <t>Кузьмина-10а-5</t>
+  </si>
+  <si>
+    <t>Синицкая-10а-6</t>
+  </si>
+  <si>
+    <t>Дубова-10а-7</t>
+  </si>
+  <si>
+    <t>Калинина-10б-2</t>
+  </si>
+  <si>
+    <t>Селькин-10б-4</t>
+  </si>
+  <si>
+    <t>Яковлева-10б-5</t>
+  </si>
+  <si>
+    <t>Михайлова-11а-2</t>
+  </si>
+  <si>
+    <t>Волкова-11а-3</t>
+  </si>
+  <si>
+    <t>Дубова-11а-6</t>
+  </si>
+  <si>
+    <t>Михайлова-11а-7</t>
+  </si>
+  <si>
+    <t>Степанян-11б-1</t>
+  </si>
+  <si>
+    <t>Флоринская-11б-2</t>
+  </si>
+  <si>
+    <t>Степанян-11б-4</t>
+  </si>
+  <si>
+    <t>Бирюкова-11б-6</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>Флоринская-6б</t>
-  </si>
-  <si>
-    <t>Кузикова-8а</t>
-  </si>
-  <si>
-    <t>Чулкова-5в</t>
-  </si>
-  <si>
-    <t>Георгиева-8а</t>
-  </si>
-  <si>
-    <t>Михайлова-8а</t>
-  </si>
-  <si>
-    <t>Васильева-9а</t>
-  </si>
-  <si>
-    <t>Автономова-9а</t>
-  </si>
-  <si>
-    <t>Дубова-10а</t>
+    <t>Дубова-5а-3</t>
+  </si>
+  <si>
+    <t>Волкова-5а-4</t>
+  </si>
+  <si>
+    <t>Волкова-5а-5</t>
+  </si>
+  <si>
+    <t>Степанян-5б-1</t>
+  </si>
+  <si>
+    <t>Степанян-5б-2</t>
+  </si>
+  <si>
+    <t>Чижкина-5б-4</t>
+  </si>
+  <si>
+    <t>Грищенко-5б-5</t>
+  </si>
+  <si>
+    <t>Куликова-5в-2</t>
+  </si>
+  <si>
+    <t>Кузнецова-5в-3</t>
+  </si>
+  <si>
+    <t>Загребельная-5в-5</t>
+  </si>
+  <si>
+    <t>Васильева-6а-1</t>
+  </si>
+  <si>
+    <t>Синицкая-6а-2</t>
+  </si>
+  <si>
+    <t>Автономова-6а-3</t>
+  </si>
+  <si>
+    <t>Волкова-6а-4</t>
+  </si>
+  <si>
+    <t>Степанян-6б-1</t>
+  </si>
+  <si>
+    <t>Калинина-6б-2</t>
+  </si>
+  <si>
+    <t>Орлова-6в-1</t>
+  </si>
+  <si>
+    <t>Кузнецова-6в-2</t>
+  </si>
+  <si>
+    <t>Полозова-6в-3</t>
+  </si>
+  <si>
+    <t>Кузнецова-6в-5</t>
+  </si>
+  <si>
+    <t>Дубова-7а-2</t>
+  </si>
+  <si>
+    <t>Автономова-7а-3</t>
+  </si>
+  <si>
+    <t>Селькин-7б-1</t>
+  </si>
+  <si>
+    <t>Селькин-7б-2</t>
+  </si>
+  <si>
+    <t>Калинина-7б-4</t>
+  </si>
+  <si>
+    <t>Калинина-7б-6</t>
+  </si>
+  <si>
+    <t>Орлова-7в-1</t>
+  </si>
+  <si>
+    <t>Орлова-7в-2</t>
+  </si>
+  <si>
+    <t>Кузнецова-7в-3</t>
+  </si>
+  <si>
+    <t>Григорьева-7в-4</t>
+  </si>
+  <si>
+    <t>Полозова-7в-6</t>
+  </si>
+  <si>
+    <t>Кузикова-8а-2</t>
+  </si>
+  <si>
+    <t>Волкова-8а-3</t>
+  </si>
+  <si>
+    <t>Дубова-8а-4</t>
+  </si>
+  <si>
+    <t>Дубова-8а-6</t>
+  </si>
+  <si>
+    <t>Грищенко-8б-2</t>
+  </si>
+  <si>
+    <t>Бирюкова-8б-3</t>
+  </si>
+  <si>
+    <t>Яковлева-8б-5</t>
+  </si>
+  <si>
+    <t>Степанян-8б-6</t>
+  </si>
+  <si>
+    <t>Кузнецова-8в-1</t>
+  </si>
+  <si>
+    <t>Чулкова-8в-3</t>
+  </si>
+  <si>
+    <t>Григорьева-8в-4</t>
+  </si>
+  <si>
+    <t>Кузикова-9а-1</t>
+  </si>
+  <si>
+    <t>Синицкая-9а-2</t>
+  </si>
+  <si>
+    <t>Михайлова-9а-3</t>
+  </si>
+  <si>
+    <t>Волкова-9а-4</t>
+  </si>
+  <si>
+    <t>Дубова-9а-6</t>
+  </si>
+  <si>
+    <t>Калинина-9б-1</t>
+  </si>
+  <si>
+    <t>Платунова-9б-2</t>
+  </si>
+  <si>
+    <t>Платунова-9б-3</t>
+  </si>
+  <si>
+    <t>Яковлева-9б-4</t>
+  </si>
+  <si>
+    <t>Калинина-9б-5</t>
+  </si>
+  <si>
+    <t>Степанян-9б-6</t>
+  </si>
+  <si>
+    <t>Грищенко-9б-7</t>
+  </si>
+  <si>
+    <t>Григорьева-9в-2</t>
+  </si>
+  <si>
+    <t>Полозова-9в-3</t>
+  </si>
+  <si>
+    <t>Орлова-9в-4</t>
+  </si>
+  <si>
+    <t>Куликова-9в-6</t>
+  </si>
+  <si>
+    <t>Куликова-9в-7</t>
+  </si>
+  <si>
+    <t>Синицкая-10а-1</t>
+  </si>
+  <si>
+    <t>Автономова-10а-2</t>
+  </si>
+  <si>
+    <t>Кузикова-10а-3</t>
+  </si>
+  <si>
+    <t>Васильева-10а-4</t>
+  </si>
+  <si>
+    <t>Волкова-10а-6</t>
+  </si>
+  <si>
+    <t>Калинина-10б-1</t>
+  </si>
+  <si>
+    <t>Грищенко-10б-2</t>
+  </si>
+  <si>
+    <t>Платунова-10б-3</t>
+  </si>
+  <si>
+    <t>Яковлева-10б-4</t>
+  </si>
+  <si>
+    <t>Чижкина-10б-5</t>
+  </si>
+  <si>
+    <t>Яковлева-10б-6</t>
+  </si>
+  <si>
+    <t>Кузикова-11а-1</t>
+  </si>
+  <si>
+    <t>Автономова-11а-4</t>
+  </si>
+  <si>
+    <t>Флоринская-11б-1</t>
+  </si>
+  <si>
+    <t>Чижкина-11б-5</t>
+  </si>
+  <si>
+    <t>Степанян-11б-7</t>
   </si>
 </sst>
 </file>
@@ -681,419 +1521,419 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21"/>
     <row r="22">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
@@ -1101,445 +1941,445 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="H37" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="G38" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="F39" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="H39" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="H40" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42"/>
     <row r="43">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44">
@@ -1547,19 +2387,19 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="F44" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
@@ -1567,425 +2407,425 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="F45" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="F46" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c r="G50" t="s">
-        <v>163</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="G53" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>279</v>
       </c>
       <c r="G54" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="G55" t="s">
-        <v>144</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>289</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>290</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="G57" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>297</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="G58" t="s">
-        <v>146</v>
+        <v>301</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="F59" t="s">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="G59" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>308</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>309</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>312</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>315</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E61" t="s">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="G61" t="s">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="H61" t="s">
-        <v>93</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>323</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="F62" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="G62" t="s">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="H62" t="s">
-        <v>171</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63"/>
     <row r="64">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65">
@@ -1993,19 +2833,19 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
@@ -2013,425 +2853,425 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>333</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="E67" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>338</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>339</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>342</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>344</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="F70" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>349</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="E71" t="s">
-        <v>114</v>
+        <v>352</v>
       </c>
       <c r="F71" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>355</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>356</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>357</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>358</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>359</v>
       </c>
       <c r="G72" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>360</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="G73" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>362</v>
       </c>
       <c r="D74" t="s">
-        <v>132</v>
+        <v>363</v>
       </c>
       <c r="E74" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="G74" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>365</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>366</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="F75" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>367</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G76" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>135</v>
+        <v>370</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>371</v>
       </c>
       <c r="G77" t="s">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="H77" t="s">
-        <v>135</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E78" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="F78" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="G78" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="H78" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="E79" t="s">
-        <v>146</v>
+        <v>376</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>377</v>
       </c>
       <c r="G79" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="H79" t="s">
-        <v>76</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>380</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>381</v>
       </c>
       <c r="D80" t="s">
-        <v>183</v>
+        <v>382</v>
       </c>
       <c r="E80" t="s">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="F80" t="s">
-        <v>83</v>
+        <v>384</v>
       </c>
       <c r="G80" t="s">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="H80" t="s">
-        <v>82</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>387</v>
       </c>
       <c r="D81" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E81" t="s">
-        <v>90</v>
+        <v>388</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
       <c r="G81" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="H81" t="s">
-        <v>89</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>390</v>
       </c>
       <c r="D82" t="s">
-        <v>150</v>
+        <v>391</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F82" t="s">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="G82" t="s">
-        <v>150</v>
+        <v>392</v>
       </c>
       <c r="H82" t="s">
-        <v>150</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>394</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>395</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>323</v>
       </c>
       <c r="E83" t="s">
-        <v>102</v>
+        <v>396</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>325</v>
       </c>
       <c r="G83" t="s">
-        <v>106</v>
+        <v>397</v>
       </c>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84"/>
     <row r="85">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86">
@@ -2439,19 +3279,19 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="D86" t="s">
-        <v>173</v>
+        <v>399</v>
       </c>
       <c r="E86" t="s">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="F86" t="s">
-        <v>6</v>
+        <v>401</v>
       </c>
     </row>
     <row r="87">
@@ -2459,419 +3299,419 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>402</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>115</v>
+        <v>404</v>
       </c>
       <c r="F87" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>406</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>407</v>
       </c>
       <c r="E88" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="C89" t="s">
-        <v>156</v>
+        <v>410</v>
       </c>
       <c r="D89" t="s">
-        <v>115</v>
+        <v>411</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>412</v>
       </c>
       <c r="F89" t="s">
-        <v>115</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>413</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>414</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="E90" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>415</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>416</v>
       </c>
       <c r="D91" t="s">
-        <v>164</v>
+        <v>417</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>419</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>420</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="G92" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>421</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>422</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>423</v>
       </c>
       <c r="F93" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="G93" t="s">
-        <v>133</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>425</v>
       </c>
       <c r="C94" t="s">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="D94" t="s">
-        <v>65</v>
+        <v>427</v>
       </c>
       <c r="E94" t="s">
-        <v>66</v>
+        <v>428</v>
       </c>
       <c r="F94" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="G94" t="s">
-        <v>138</v>
+        <v>429</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>431</v>
       </c>
       <c r="E95" t="s">
-        <v>121</v>
+        <v>432</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>434</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>435</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>436</v>
       </c>
       <c r="G96" t="s">
-        <v>65</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>141</v>
+        <v>438</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="D97" t="s">
-        <v>167</v>
+        <v>439</v>
       </c>
       <c r="E97" t="s">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="F97" t="s">
-        <v>137</v>
+        <v>283</v>
       </c>
       <c r="G97" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>441</v>
       </c>
       <c r="C98" t="s">
-        <v>53</v>
+        <v>442</v>
       </c>
       <c r="D98" t="s">
-        <v>192</v>
+        <v>443</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>444</v>
       </c>
       <c r="F98" t="s">
-        <v>53</v>
+        <v>371</v>
       </c>
       <c r="G98" t="s">
-        <v>67</v>
+        <v>445</v>
       </c>
       <c r="H98" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>446</v>
       </c>
       <c r="C99" t="s">
-        <v>167</v>
+        <v>447</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>448</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>449</v>
       </c>
       <c r="F99" t="s">
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="G99" t="s">
-        <v>144</v>
+        <v>451</v>
       </c>
       <c r="H99" t="s">
-        <v>73</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="D100" t="s">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="E100" t="s">
-        <v>76</v>
+        <v>455</v>
       </c>
       <c r="F100" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="G100" t="s">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="H100" t="s">
-        <v>76</v>
+        <v>457</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>458</v>
       </c>
       <c r="C101" t="s">
-        <v>84</v>
+        <v>459</v>
       </c>
       <c r="D101" t="s">
-        <v>83</v>
+        <v>460</v>
       </c>
       <c r="E101" t="s">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="F101" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="G101" t="s">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="H101" t="s">
-        <v>193</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>463</v>
       </c>
       <c r="C102" t="s">
-        <v>89</v>
+        <v>464</v>
       </c>
       <c r="D102" t="s">
-        <v>88</v>
+        <v>465</v>
       </c>
       <c r="E102" t="s">
-        <v>94</v>
+        <v>466</v>
       </c>
       <c r="F102" t="s">
-        <v>96</v>
+        <v>467</v>
       </c>
       <c r="G102" t="s">
-        <v>149</v>
+        <v>468</v>
       </c>
       <c r="H102" t="s">
-        <v>99</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>469</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E103" t="s">
-        <v>89</v>
+        <v>470</v>
       </c>
       <c r="F103" t="s">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="G103" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="H103" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>322</v>
       </c>
       <c r="D104" t="s">
-        <v>103</v>
+        <v>323</v>
       </c>
       <c r="E104" t="s">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="F104" t="s">
-        <v>153</v>
+        <v>472</v>
       </c>
       <c r="G104" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="H104" t="s">
-        <v>171</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105"/>
